--- a/form-files/IMNCI/above2mo.xlsx
+++ b/form-files/IMNCI/above2mo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653" count="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="664" count="962">
   <si>
     <t>comments</t>
   </si>
@@ -46,7 +46,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>choiceFilter</t>
+    <t>choice_filter</t>
   </si>
   <si>
     <t>image</t>
@@ -100,7 +100,7 @@
     <t>You entered a birthday in the future. Perhaps your device doesn't have the correct date.</t>
   </si>
   <si>
-    <t>number</t>
+    <t>decimal</t>
   </si>
   <si>
     <t>weight</t>
@@ -277,10 +277,13 @@
     <t> </t>
   </si>
   <si>
+    <t>Disabling based off Manoj's comment that we should check all signs.</t>
+  </si>
+  <si>
     <t>goto diarrhoea_section</t>
   </si>
   <si>
-    <t>selected(data('difficulty_breathing'), 'no')</t>
+    <t>false &amp;&amp; selected(data('difficulty_breathing'), 'no')</t>
   </si>
   <si>
     <t>breaths_per_minute</t>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>goto cough_or_cold</t>
+  </si>
+  <si>
+    <t>goto respiratory_section_end</t>
   </si>
   <si>
     <t>label severe_pneumonia</t>
@@ -453,6 +459,9 @@
     <t>३० दिन से ज़्यादा खाँस तो रेफरल दें </t>
   </si>
   <si>
+    <t>label respiratory_section_end</t>
+  </si>
+  <si>
     <t>label diarrhoea_section</t>
   </si>
   <si>
@@ -468,7 +477,10 @@
     <t>goto fever_section</t>
   </si>
   <si>
-    <t>selected(data('diarrhoea'), 'no')</t>
+    <t>false &amp;&amp; selected(data('diarrhoea'), 'no')</t>
+  </si>
+  <si>
+    <t>selected(data('diarrhoea'), 'yes')</t>
   </si>
   <si>
     <t>पूछें </t>
@@ -564,7 +576,7 @@
     <t>पेट की त्वचा पर चिकोटी भरें, यह काए वापस जाता है? </t>
   </si>
   <si>
-    <t>./img/pinch-abdomen.jpg</t>
+    <t>./img/pinchskin.jpg</t>
   </si>
   <si>
     <t>goto severe_dehydration</t>
@@ -580,6 +592,9 @@
   </si>
   <si>
     <t>goto no_dehydration</t>
+  </si>
+  <si>
+    <t>goto dehydration_end</t>
   </si>
   <si>
     <t>label severe_dehydration</t>
@@ -641,9 +656,6 @@
     <t>तुरंत अस्पताल रेफर करें व रास्ते मैं शिशु को ओ. आर. एस देते रहें.</t>
   </si>
   <si>
-    <t>goto dehydration_end</t>
-  </si>
-  <si>
     <t>label some_dehydration</t>
   </si>
   <si>
@@ -814,75 +826,63 @@
     <t>कक्षा तापमान को मापने के लिए संभव है?</t>
   </si>
   <si>
+    <t>selected(data('axillary_temperature_possible'), 'yes')</t>
+  </si>
+  <si>
+    <t>axillary_temperature</t>
+  </si>
+  <si>
+    <t>Measure axillary temperature:</t>
+  </si>
+  <si>
+    <t>कक्षा तापमान</t>
+  </si>
+  <si>
+    <t>selected(data('axillary_temperature_possible'), 'no')</t>
+  </si>
+  <si>
+    <t>feel_for_fever</t>
+  </si>
+  <si>
+    <t>Feel  for fever:</t>
+  </si>
+  <si>
+    <t>तापमान देखें </t>
+  </si>
+  <si>
+    <t>selected(data('feel_for_fever'), 'not_present') &amp;&amp; data('axillary_temperature') &lt; 37.5</t>
+  </si>
+  <si>
+    <t>fever_by_history</t>
+  </si>
+  <si>
+    <t>ASK: Has the child had a fever recently?</t>
+  </si>
+  <si>
+    <t>क्या बच्चे को आज कल मैं बोखार आया है?</t>
+  </si>
+  <si>
+    <t>label fever_assessment</t>
+  </si>
+  <si>
+    <t>calculates.fever()</t>
+  </si>
+  <si>
+    <t>पूछें: </t>
+  </si>
+  <si>
+    <t>fever_days</t>
+  </si>
+  <si>
+    <t>How long has the child had a fever?</t>
+  </si>
+  <si>
+    <t>बुखार कब से है?</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>selected(data('axillary_temperature_possible'), 'yes')</t>
-  </si>
-  <si>
-    <t>axillary_temperature</t>
-  </si>
-  <si>
-    <t>Measure axillary temperature:</t>
-  </si>
-  <si>
-    <t>कक्षा तापमान</t>
-  </si>
-  <si>
-    <t>selected(data('axillary_temperature_possible'), 'no')</t>
-  </si>
-  <si>
-    <t>feel_for_fever</t>
-  </si>
-  <si>
-    <t>Feel  for fever:</t>
-  </si>
-  <si>
-    <t>तापमान देखें </t>
-  </si>
-  <si>
-    <t>selected(data('feel_for_fever'), 'not_present') &amp;&amp; axillary_temperature &lt; 37.5</t>
-  </si>
-  <si>
-    <t>fever_by_history</t>
-  </si>
-  <si>
-    <t>ASK: Has the child had a fever recently?</t>
-  </si>
-  <si>
-    <t>क्या बच्चे को आज कल मैं बोखार आया है?</t>
-  </si>
-  <si>
-    <t>goto fever_assessment</t>
-  </si>
-  <si>
-    <t>selected(data('axillary_temperature_possible'), 'yes') &amp;&amp; data('axillary_temperature') &gt;= 37.5</t>
-  </si>
-  <si>
-    <t>selected(data('feel_for_fever'), 'present')</t>
-  </si>
-  <si>
-    <t>selected(data('fever_by_history'), 'no')</t>
-  </si>
-  <si>
-    <t>goto fever_assessment_end</t>
-  </si>
-  <si>
-    <t>label fever_assessment</t>
-  </si>
-  <si>
-    <t>पूछें: </t>
-  </si>
-  <si>
-    <t>fever_days</t>
-  </si>
-  <si>
-    <t>How long has the child had a fever?</t>
-  </si>
-  <si>
-    <t>बुखार कब से है?</t>
-  </si>
-  <si>
     <t>data('fever_days') &gt; 7</t>
   </si>
   <si>
@@ -895,6 +895,9 @@
     <t>क्या बुखार रोज़ाना आता है?</t>
   </si>
   <si>
+    <t>label fever_assessment_end</t>
+  </si>
+  <si>
     <t>stiff_neck</t>
   </si>
   <si>
@@ -913,6 +916,9 @@
     <t>goto malaria</t>
   </si>
   <si>
+    <t>goto fever_section_end</t>
+  </si>
+  <si>
     <t>label very_severe_febrile_disease</t>
   </si>
   <si>
@@ -955,6 +961,9 @@
     <t>Include NAMP guidelines? Use links?</t>
   </si>
   <si>
+    <t>acknowledge_give_antimalarial</t>
+  </si>
+  <si>
     <t>Give first dose of antimalarial as per NAMP guidelines after making a smear.</t>
   </si>
   <si>
@@ -1027,7 +1036,7 @@
     <t>७ दिन से ज़्यादा बुखार को रेफरल </t>
   </si>
   <si>
-    <t>label goto fever_assessment_end</t>
+    <t>label fever_section_end</t>
   </si>
   <si>
     <t>label malnutrition_section</t>
@@ -1331,7 +1340,7 @@
     <t>शिशु को कौनसा टीका नही लगा है?</t>
   </si>
   <si>
-    <t>context.age_weeks &lt; Math.round(calculates.daysOld() / 7)</t>
+    <t>context.age_weeks &lt;= Math.round(calculates.daysOld() / 7)</t>
   </si>
   <si>
     <t>Give the following vaccinations:
@@ -1340,6 +1349,9 @@
 {{/each}}&lt;/ul&gt;</t>
   </si>
   <si>
+    <t>calculates.daysOld() &gt;= (9 * 30)</t>
+  </si>
+  <si>
     <t>Give a single dose of prophylactic vitamin A:</t>
   </si>
   <si>
@@ -1371,6 +1383,12 @@
   </si>
   <si>
     <t>200,000 IU (2ml) at 36 months</t>
+  </si>
+  <si>
+    <t>acknowledge_give_vitamin_A</t>
+  </si>
+  <si>
+    <t>acknowledge_give_ifa_tablet</t>
   </si>
   <si>
     <t>Give one tablet of Pediatric IFA for a total of 100 days in a year after the child has recovered from acute illness if:</t>
@@ -1430,10 +1448,20 @@
     <t>/*data('weight') data('birthday')*/null</t>
   </si>
   <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>(selected(data('axillary_temperature_possible'), 'yes') &amp;&amp; data('axillary_temperature') &gt;= 37.5)
+||
+selected(data('feel_for_fever'), 'present')
+||
+selected(data('fever_by_history'), 'yes')</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>age_months </t>
+    <t>age_weeks</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -1833,7 +1861,7 @@
     <t>initial_visit</t>
   </si>
   <si>
-    <t>Initial vist</t>
+    <t>Initial visit</t>
   </si>
   <si>
     <t>प्रथम भेट. </t>
@@ -1887,16 +1915,25 @@
     <t>no_some_severe</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>कुच्छ</t>
   </si>
   <si>
     <t>some</t>
   </si>
   <si>
+    <t>Some</t>
+  </si>
+  <si>
     <t>तोढा</t>
   </si>
   <si>
     <t>severe</t>
+  </si>
+  <si>
+    <t>Severe</t>
   </si>
   <si>
     <t>बहुत</t>
@@ -2635,12 +2672,14 @@
       </c>
     </row>
     <row r="27">
-      <c s="11" r="A27"/>
+      <c t="s" s="11" r="A27">
+        <v>87</v>
+      </c>
       <c t="s" r="B27">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="C27">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -2649,321 +2688,314 @@
         <v>79</v>
       </c>
       <c t="s" r="D28">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="F28">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="G28">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="H28">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="I28">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" s="4" r="M28">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c s="11" r="A29"/>
       <c t="s" s="4" r="B29">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="D29">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="F29">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" s="5" r="G29">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="H29">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="I29">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c s="11" r="A30"/>
       <c t="s" r="B30">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="C30">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
       <c s="11" r="A31"/>
       <c t="s" r="B31">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="C31">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c s="11" r="A32"/>
       <c t="s" r="B32">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c t="s" r="C32">
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c s="11" r="A33"/>
-      <c t="s" s="8" r="B33">
-        <v>104</v>
+      <c t="s" r="B33">
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c s="11" r="A34"/>
-      <c t="s" r="B34">
-        <v>105</v>
-      </c>
-      <c t="s" r="D34">
+      <c t="s" s="8" r="B34">
         <v>106</v>
-      </c>
-      <c t="b" r="E34">
-        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c s="11" r="A35"/>
-      <c t="s" s="4" r="B35">
-        <v>40</v>
-      </c>
-      <c s="4" r="C35"/>
-      <c s="4" r="D35"/>
-      <c s="4" r="E35"/>
-      <c s="4" r="F35"/>
+      <c t="s" r="B35">
+        <v>107</v>
+      </c>
+      <c t="s" r="D35">
+        <v>108</v>
+      </c>
+      <c t="b" r="E35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c s="11" r="A36"/>
       <c t="s" s="4" r="B36">
+        <v>40</v>
+      </c>
+      <c s="4" r="C36"/>
+      <c s="4" r="D36"/>
+      <c s="4" r="E36"/>
+      <c s="4" r="F36"/>
+    </row>
+    <row r="37">
+      <c s="11" r="A37"/>
+      <c t="s" s="4" r="B37">
         <v>36</v>
       </c>
-      <c t="s" r="F36">
-        <v>107</v>
-      </c>
-      <c t="s" r="G36">
-        <v>108</v>
-      </c>
-      <c t="s" r="H36">
+      <c t="s" r="F37">
         <v>109</v>
       </c>
-      <c t="s" r="I36">
+      <c t="s" r="G37">
         <v>110</v>
       </c>
-    </row>
-    <row r="37">
-      <c t="s" s="11" r="A37">
+      <c t="s" r="H37">
         <v>111</v>
       </c>
-      <c t="s" s="5" r="B37">
-        <v>72</v>
-      </c>
-      <c t="s" s="5" r="D37">
+      <c t="s" r="I37">
         <v>112</v>
       </c>
-      <c s="5" r="E37"/>
-      <c t="s" s="5" r="F37">
+    </row>
+    <row r="38">
+      <c t="s" s="11" r="A38">
         <v>113</v>
       </c>
-      <c t="s" r="G37">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38">
-      <c s="11" r="A38"/>
       <c t="s" s="5" r="B38">
         <v>72</v>
       </c>
       <c t="s" s="5" r="D38">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c s="5" r="E38"/>
       <c t="s" s="5" r="F38">
+        <v>115</v>
+      </c>
+      <c t="s" r="G38">
         <v>116</v>
-      </c>
-      <c t="s" r="G38">
-        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c s="11" r="A39"/>
-      <c t="s" s="4" r="B39">
-        <v>53</v>
-      </c>
-      <c s="4" r="C39"/>
-      <c s="4" r="D39"/>
-      <c s="4" r="E39"/>
-      <c s="4" r="F39"/>
+      <c t="s" s="5" r="B39">
+        <v>72</v>
+      </c>
+      <c t="s" s="5" r="D39">
+        <v>117</v>
+      </c>
+      <c s="5" r="E39"/>
+      <c t="s" s="5" r="F39">
+        <v>118</v>
+      </c>
+      <c t="s" r="G39">
+        <v>119</v>
+      </c>
     </row>
     <row r="40">
       <c s="11" r="A40"/>
-      <c t="s" r="B40">
-        <v>87</v>
-      </c>
+      <c t="s" s="4" r="B40">
+        <v>53</v>
+      </c>
+      <c s="4" r="C40"/>
+      <c s="4" r="D40"/>
+      <c s="4" r="E40"/>
+      <c s="4" r="F40"/>
     </row>
     <row r="41">
       <c s="11" r="A41"/>
-      <c t="s" s="8" r="B41">
-        <v>118</v>
+      <c t="s" r="B41">
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c s="11" r="A42"/>
-      <c t="s" r="B42">
-        <v>105</v>
-      </c>
-      <c t="s" r="D42">
-        <v>119</v>
-      </c>
-      <c t="b" r="E42">
-        <v>1</v>
+      <c t="s" s="8" r="B42">
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c s="11" r="A43"/>
-      <c t="s" s="4" r="B43">
-        <v>40</v>
-      </c>
-      <c s="4" r="C43"/>
-      <c s="4" r="D43"/>
-      <c s="4" r="E43"/>
-      <c s="4" r="F43"/>
+      <c t="s" r="B43">
+        <v>107</v>
+      </c>
+      <c t="s" r="D43">
+        <v>121</v>
+      </c>
+      <c t="b" r="E43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c s="11" r="A44"/>
       <c t="s" s="4" r="B44">
+        <v>40</v>
+      </c>
+      <c s="4" r="C44"/>
+      <c s="4" r="D44"/>
+      <c s="4" r="E44"/>
+      <c s="4" r="F44"/>
+    </row>
+    <row r="45">
+      <c s="11" r="A45"/>
+      <c t="s" s="4" r="B45">
         <v>36</v>
       </c>
-      <c t="s" r="F44">
-        <v>120</v>
-      </c>
-      <c t="s" r="G44">
-        <v>121</v>
-      </c>
-      <c t="s" r="H44">
+      <c t="s" r="F45">
         <v>122</v>
       </c>
-      <c t="s" r="I44">
+      <c t="s" r="G45">
         <v>123</v>
       </c>
-    </row>
-    <row r="45">
-      <c t="s" s="11" r="A45">
-        <v>111</v>
-      </c>
-      <c t="s" s="5" r="B45">
-        <v>72</v>
-      </c>
-      <c t="s" s="5" r="D45">
+      <c t="s" r="H45">
         <v>124</v>
       </c>
-      <c s="5" r="E45"/>
-      <c t="s" s="5" r="F45">
+      <c t="s" r="I45">
         <v>125</v>
       </c>
-      <c t="s" r="G45">
-        <v>126</v>
-      </c>
     </row>
     <row r="46">
-      <c s="11" r="A46"/>
+      <c t="s" s="11" r="A46">
+        <v>113</v>
+      </c>
       <c t="s" s="5" r="B46">
         <v>72</v>
       </c>
       <c t="s" s="5" r="D46">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c s="5" r="E46"/>
       <c t="s" s="5" r="F46">
+        <v>127</v>
+      </c>
+      <c t="s" r="G46">
         <v>128</v>
-      </c>
-      <c t="s" r="G46">
-        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c s="11" r="A47"/>
-      <c t="s" s="4" r="B47">
-        <v>53</v>
-      </c>
-      <c s="4" r="C47"/>
-      <c s="4" r="D47"/>
-      <c s="4" r="E47"/>
-      <c s="4" r="F47"/>
+      <c t="s" s="5" r="B47">
+        <v>72</v>
+      </c>
+      <c t="s" s="5" r="D47">
+        <v>129</v>
+      </c>
+      <c s="5" r="E47"/>
+      <c t="s" s="5" r="F47">
+        <v>130</v>
+      </c>
+      <c t="s" r="G47">
+        <v>131</v>
+      </c>
     </row>
     <row r="48">
       <c s="11" r="A48"/>
-      <c t="s" r="B48">
-        <v>87</v>
-      </c>
+      <c t="s" s="4" r="B48">
+        <v>53</v>
+      </c>
+      <c s="4" r="C48"/>
+      <c s="4" r="D48"/>
+      <c s="4" r="E48"/>
+      <c s="4" r="F48"/>
     </row>
     <row r="49">
       <c s="11" r="A49"/>
-      <c t="s" s="8" r="B49">
-        <v>130</v>
+      <c t="s" r="B49">
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c s="11" r="A50"/>
-      <c t="s" r="B50">
-        <v>105</v>
-      </c>
-      <c t="s" r="D50">
-        <v>131</v>
-      </c>
-      <c t="b" r="E50">
-        <v>1</v>
+      <c t="s" s="8" r="B50">
+        <v>132</v>
       </c>
     </row>
     <row r="51">
       <c s="11" r="A51"/>
-      <c t="s" s="4" r="B51">
-        <v>40</v>
-      </c>
-      <c s="4" r="C51"/>
-      <c s="4" r="D51"/>
-      <c s="4" r="E51"/>
-      <c s="4" r="F51"/>
+      <c t="s" r="B51">
+        <v>107</v>
+      </c>
+      <c t="s" r="D51">
+        <v>133</v>
+      </c>
+      <c t="b" r="E51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c s="11" r="A52"/>
       <c t="s" s="4" r="B52">
-        <v>36</v>
-      </c>
-      <c t="s" r="F52">
-        <v>132</v>
-      </c>
-      <c t="s" r="G52">
-        <v>133</v>
-      </c>
-      <c t="s" r="H52">
-        <v>122</v>
-      </c>
-      <c t="s" r="I52">
-        <v>123</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c s="4" r="C52"/>
+      <c s="4" r="D52"/>
+      <c s="4" r="E52"/>
+      <c s="4" r="F52"/>
     </row>
     <row r="53">
       <c s="11" r="A53"/>
-      <c t="s" s="5" r="B53">
-        <v>72</v>
-      </c>
-      <c t="s" s="5" r="D53">
+      <c t="s" s="4" r="B53">
+        <v>36</v>
+      </c>
+      <c t="s" r="F53">
         <v>134</v>
       </c>
-      <c s="5" r="E53"/>
-      <c t="s" s="5" r="F53">
+      <c t="s" r="G53">
         <v>135</v>
       </c>
-      <c t="s" r="G53">
-        <v>136</v>
+      <c t="s" r="H53">
+        <v>124</v>
+      </c>
+      <c t="s" r="I53">
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -2971,236 +3003,240 @@
       <c t="s" s="5" r="B54">
         <v>72</v>
       </c>
-      <c t="s" r="C54">
-        <v>137</v>
-      </c>
       <c t="s" s="5" r="D54">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c s="5" r="E54"/>
       <c t="s" s="5" r="F54">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="G54">
-        <v>140</v>
-      </c>
-      <c t="s" r="H54">
-        <v>141</v>
-      </c>
-      <c t="s" r="I54">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55">
       <c s="11" r="A55"/>
-      <c t="s" s="4" r="B55">
-        <v>53</v>
-      </c>
-      <c s="4" r="C55"/>
-      <c s="4" r="D55"/>
-      <c s="4" r="E55"/>
-      <c s="4" r="F55"/>
+      <c t="s" s="5" r="B55">
+        <v>72</v>
+      </c>
+      <c t="s" r="C55">
+        <v>139</v>
+      </c>
+      <c t="s" s="5" r="D55">
+        <v>140</v>
+      </c>
+      <c s="5" r="E55"/>
+      <c t="s" s="5" r="F55">
+        <v>141</v>
+      </c>
+      <c t="s" r="G55">
+        <v>142</v>
+      </c>
+      <c t="s" r="H55">
+        <v>143</v>
+      </c>
+      <c t="s" r="I55">
+        <v>144</v>
+      </c>
     </row>
     <row r="56">
       <c s="11" r="A56"/>
-      <c t="s" r="B56">
-        <v>87</v>
-      </c>
+      <c t="s" s="4" r="B56">
+        <v>53</v>
+      </c>
+      <c s="4" r="C56"/>
+      <c s="4" r="D56"/>
+      <c s="4" r="E56"/>
+      <c s="4" r="F56"/>
     </row>
     <row r="57">
       <c s="11" r="A57"/>
-      <c t="s" s="8" r="B57">
-        <v>143</v>
+      <c t="s" s="3" r="B57">
+        <v>145</v>
       </c>
     </row>
     <row r="58">
       <c s="11" r="A58"/>
-      <c t="s" r="B58">
-        <v>43</v>
-      </c>
-      <c t="s" r="D58">
-        <v>144</v>
-      </c>
-      <c t="s" r="F58">
-        <v>145</v>
-      </c>
-      <c t="s" r="G58">
+      <c t="s" s="8" r="B58">
         <v>146</v>
       </c>
     </row>
     <row r="59">
       <c s="11" r="A59"/>
       <c t="s" r="B59">
+        <v>43</v>
+      </c>
+      <c t="s" r="D59">
         <v>147</v>
       </c>
-      <c t="s" r="C59">
+      <c t="s" r="F59">
         <v>148</v>
       </c>
+      <c t="s" r="G59">
+        <v>149</v>
+      </c>
     </row>
     <row r="60">
-      <c s="11" r="A60"/>
+      <c t="s" s="11" r="A60">
+        <v>87</v>
+      </c>
       <c t="s" r="B60">
-        <v>40</v>
+        <v>150</v>
+      </c>
+      <c t="s" r="C60">
+        <v>151</v>
       </c>
     </row>
     <row r="61">
       <c s="11" r="A61"/>
       <c t="s" r="B61">
-        <v>36</v>
-      </c>
-      <c t="s" r="F61">
-        <v>41</v>
-      </c>
-      <c t="s" r="G61">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c t="s" r="C61">
+        <v>152</v>
       </c>
     </row>
     <row r="62">
       <c s="11" r="A62"/>
       <c t="s" r="B62">
-        <v>79</v>
-      </c>
-      <c t="s" r="D62">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c t="s" r="F62">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c t="s" r="G62">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63">
       <c s="11" r="A63"/>
-      <c t="s" s="4" r="B63">
-        <v>43</v>
-      </c>
-      <c t="s" s="5" r="D63">
-        <v>153</v>
-      </c>
-      <c s="5" r="E63"/>
-      <c t="s" s="5" r="F63">
+      <c t="s" r="B63">
+        <v>79</v>
+      </c>
+      <c t="s" r="D63">
         <v>154</v>
       </c>
+      <c t="s" r="F63">
+        <v>155</v>
+      </c>
       <c t="s" r="G63">
-        <v>155</v>
-      </c>
-      <c s="6" r="L63"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="64">
       <c s="11" r="A64"/>
-      <c t="s" r="B64">
-        <v>53</v>
-      </c>
+      <c t="s" s="4" r="B64">
+        <v>43</v>
+      </c>
+      <c t="s" s="5" r="D64">
+        <v>157</v>
+      </c>
+      <c s="5" r="E64"/>
+      <c t="s" s="5" r="F64">
+        <v>158</v>
+      </c>
+      <c t="s" r="G64">
+        <v>159</v>
+      </c>
+      <c s="6" r="L64"/>
     </row>
     <row r="65">
       <c s="11" r="A65"/>
       <c t="s" r="B65">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
       <c s="11" r="A66"/>
       <c t="s" r="B66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c s="11" r="A67"/>
+      <c t="s" r="B67">
         <v>36</v>
       </c>
-      <c t="s" r="F66">
-        <v>156</v>
-      </c>
-      <c t="s" r="G66">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67">
-      <c t="s" s="11" r="A67">
-        <v>158</v>
-      </c>
-      <c t="s" r="B67">
-        <v>43</v>
-      </c>
-      <c t="s" r="D67">
-        <v>54</v>
-      </c>
       <c t="s" r="F67">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="G67">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68">
-      <c s="11" r="A68"/>
+      <c t="s" s="11" r="A68">
+        <v>162</v>
+      </c>
       <c t="s" r="B68">
         <v>43</v>
       </c>
       <c t="s" r="D68">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c t="s" r="F68">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="G68">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69">
       <c s="11" r="A69"/>
       <c t="s" r="B69">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c t="s" r="D69">
+        <v>165</v>
+      </c>
+      <c t="s" r="F69">
+        <v>166</v>
+      </c>
+      <c t="s" r="G69">
+        <v>167</v>
       </c>
     </row>
     <row r="70">
       <c s="11" r="A70"/>
       <c t="s" r="B70">
-        <v>43</v>
-      </c>
-      <c t="s" r="D70">
-        <v>164</v>
-      </c>
-      <c t="s" r="F70">
-        <v>165</v>
-      </c>
-      <c t="s" r="G70">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
       <c s="11" r="A71"/>
       <c t="s" r="B71">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c t="s" r="D71">
+        <v>168</v>
+      </c>
+      <c t="s" r="F71">
+        <v>169</v>
+      </c>
+      <c t="s" r="G71">
+        <v>170</v>
       </c>
     </row>
     <row r="72">
       <c s="11" r="A72"/>
       <c t="s" r="B72">
-        <v>36</v>
-      </c>
-      <c t="s" r="F72">
-        <v>167</v>
-      </c>
-      <c t="s" r="G72">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c s="11" r="A73"/>
       <c t="s" r="B73">
-        <v>43</v>
-      </c>
-      <c t="s" r="D73">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c t="s" r="F73">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="G73">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
-      <c t="s" s="11" r="A74">
-        <v>172</v>
-      </c>
+      <c s="11" r="A74"/>
       <c t="s" r="B74">
         <v>43</v>
       </c>
@@ -3215,137 +3251,143 @@
       </c>
     </row>
     <row r="75">
-      <c s="11" r="A75"/>
+      <c t="s" s="11" r="A75">
+        <v>176</v>
+      </c>
       <c t="s" r="B75">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c t="s" r="D75">
+        <v>177</v>
+      </c>
+      <c t="s" r="F75">
+        <v>178</v>
+      </c>
+      <c t="s" r="G75">
+        <v>179</v>
       </c>
     </row>
     <row r="76">
       <c s="11" r="A76"/>
-      <c t="s" s="4" r="B76">
-        <v>176</v>
-      </c>
-      <c t="s" s="5" r="D76">
-        <v>177</v>
-      </c>
-      <c t="s" r="F76">
-        <v>178</v>
-      </c>
-      <c t="s" r="G76">
-        <v>179</v>
-      </c>
-      <c t="s" r="L76">
-        <v>180</v>
+      <c t="s" r="B76">
+        <v>53</v>
       </c>
     </row>
     <row r="77">
       <c s="11" r="A77"/>
       <c t="s" s="4" r="B77">
+        <v>180</v>
+      </c>
+      <c t="s" s="5" r="D77">
         <v>181</v>
       </c>
-      <c t="s" s="5" r="C77">
+      <c t="s" r="F77">
         <v>182</v>
+      </c>
+      <c t="s" r="G77">
+        <v>183</v>
+      </c>
+      <c t="s" r="L77">
+        <v>184</v>
       </c>
     </row>
     <row r="78">
       <c s="11" r="A78"/>
       <c t="s" s="4" r="B78">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" s="5" r="C78">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c s="11" r="A79"/>
       <c t="s" s="4" r="B79">
-        <v>185</v>
-      </c>
-      <c s="5" r="C79"/>
+        <v>187</v>
+      </c>
+      <c t="s" s="5" r="C79">
+        <v>188</v>
+      </c>
     </row>
     <row r="80">
       <c s="11" r="A80"/>
-      <c s="4" r="B80"/>
-      <c s="5" r="C80"/>
+      <c t="s" s="4" r="B80">
+        <v>189</v>
+      </c>
+      <c t="s" s="5" r="C80">
+        <v>152</v>
+      </c>
     </row>
     <row r="81">
       <c s="11" r="A81"/>
-      <c t="s" s="9" r="B81">
-        <v>186</v>
+      <c t="s" r="B81">
+        <v>190</v>
       </c>
       <c s="5" r="C81"/>
-      <c s="5" r="D81"/>
-      <c s="5" r="E81"/>
-      <c s="5" r="F81"/>
-      <c s="5" r="L81"/>
     </row>
     <row r="82">
       <c s="11" r="A82"/>
-      <c t="s" r="B82">
-        <v>105</v>
-      </c>
-      <c t="s" r="D82">
-        <v>187</v>
-      </c>
-      <c t="b" r="E82">
-        <v>1</v>
-      </c>
+      <c t="s" s="9" r="B82">
+        <v>191</v>
+      </c>
+      <c s="5" r="C82"/>
+      <c s="5" r="D82"/>
+      <c s="5" r="E82"/>
+      <c s="5" r="F82"/>
+      <c s="5" r="L82"/>
     </row>
     <row r="83">
       <c s="11" r="A83"/>
       <c t="s" r="B83">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D83">
+        <v>192</v>
+      </c>
+      <c t="b" r="E83">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c s="11" r="A84"/>
-      <c t="s" s="4" r="B84">
-        <v>36</v>
-      </c>
-      <c s="5" r="C84"/>
-      <c s="4" r="D84"/>
-      <c t="s" r="F84">
-        <v>188</v>
-      </c>
-      <c t="s" r="G84">
-        <v>189</v>
-      </c>
-      <c t="s" r="H84">
-        <v>190</v>
-      </c>
-      <c t="s" r="I84">
-        <v>191</v>
-      </c>
-      <c s="4" r="L84"/>
+      <c t="s" r="B84">
+        <v>40</v>
+      </c>
     </row>
     <row r="85">
       <c s="11" r="A85"/>
-      <c t="s" r="B85">
+      <c t="s" s="4" r="B85">
         <v>36</v>
       </c>
-      <c t="s" s="5" r="C85">
-        <v>69</v>
+      <c s="5" r="C85"/>
+      <c s="4" r="D85"/>
+      <c t="s" r="F85">
+        <v>193</v>
+      </c>
+      <c t="s" r="G85">
+        <v>194</v>
       </c>
       <c t="s" r="H85">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="I85">
-        <v>71</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c s="4" r="L85"/>
     </row>
     <row r="86">
       <c s="11" r="A86"/>
       <c t="s" r="B86">
         <v>36</v>
       </c>
-      <c t="s" r="C86">
-        <v>193</v>
+      <c t="s" s="5" r="C86">
+        <v>69</v>
       </c>
       <c t="s" r="H86">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="I86">
-        <v>195</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87">
@@ -3354,13 +3396,13 @@
         <v>36</v>
       </c>
       <c t="s" r="C87">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="H87">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="I87">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -3369,102 +3411,102 @@
         <v>36</v>
       </c>
       <c t="s" r="C88">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="H88">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="I88">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
       <c s="11" r="A89"/>
       <c t="s" r="B89">
-        <v>72</v>
-      </c>
-      <c t="s" r="D89">
-        <v>202</v>
-      </c>
-      <c t="s" r="F89">
-        <v>203</v>
-      </c>
-      <c t="s" r="G89">
+        <v>36</v>
+      </c>
+      <c t="s" r="C89">
         <v>204</v>
+      </c>
+      <c t="s" r="H89">
+        <v>205</v>
+      </c>
+      <c t="s" r="I89">
+        <v>206</v>
       </c>
     </row>
     <row r="90">
       <c s="11" r="A90"/>
       <c t="s" r="B90">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="D90">
+        <v>207</v>
+      </c>
+      <c t="s" r="F90">
+        <v>208</v>
+      </c>
+      <c t="s" r="G90">
+        <v>209</v>
       </c>
     </row>
     <row r="91">
       <c s="11" r="A91"/>
       <c t="s" r="B91">
-        <v>205</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92">
       <c s="11" r="A92"/>
-      <c t="s" s="9" r="B92">
-        <v>206</v>
-      </c>
-      <c s="5" r="C92"/>
-      <c s="5" r="D92"/>
-      <c s="5" r="E92"/>
-      <c s="5" r="F92"/>
+      <c t="s" r="B92">
+        <v>190</v>
+      </c>
     </row>
     <row r="93">
       <c s="11" r="A93"/>
-      <c t="s" r="B93">
-        <v>105</v>
-      </c>
-      <c t="s" r="D93">
-        <v>207</v>
-      </c>
-      <c t="b" r="E93">
-        <v>1</v>
-      </c>
+      <c t="s" s="9" r="B93">
+        <v>210</v>
+      </c>
+      <c s="5" r="C93"/>
+      <c s="5" r="D93"/>
+      <c s="5" r="E93"/>
+      <c s="5" r="F93"/>
     </row>
     <row r="94">
       <c s="11" r="A94"/>
       <c t="s" r="B94">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D94">
+        <v>211</v>
+      </c>
+      <c t="b" r="E94">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c s="11" r="A95"/>
-      <c t="s" s="4" r="B95">
-        <v>36</v>
-      </c>
-      <c s="4" r="D95"/>
-      <c t="s" r="F95">
-        <v>208</v>
-      </c>
-      <c t="s" r="G95">
-        <v>209</v>
-      </c>
-      <c t="s" r="H95">
-        <v>190</v>
-      </c>
-      <c t="s" r="I95">
-        <v>191</v>
+      <c t="s" r="B95">
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c s="11" r="A96"/>
-      <c t="s" r="B96">
+      <c t="s" s="4" r="B96">
         <v>36</v>
       </c>
-      <c t="s" s="5" r="C96">
-        <v>210</v>
+      <c s="4" r="D96"/>
+      <c t="s" r="F96">
+        <v>212</v>
+      </c>
+      <c t="s" r="G96">
+        <v>213</v>
       </c>
       <c t="s" r="H96">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c t="s" r="I96">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97">
@@ -3472,14 +3514,14 @@
       <c t="s" r="B97">
         <v>36</v>
       </c>
-      <c t="s" r="C97">
-        <v>193</v>
+      <c t="s" s="5" r="C97">
+        <v>214</v>
       </c>
       <c t="s" r="H97">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c t="s" r="I97">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
@@ -3488,13 +3530,13 @@
         <v>36</v>
       </c>
       <c t="s" r="C98">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c t="s" r="H98">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c t="s" r="I98">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
@@ -3503,268 +3545,262 @@
         <v>36</v>
       </c>
       <c t="s" r="C99">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="H99">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="I99">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100">
       <c s="11" r="A100"/>
       <c t="s" r="B100">
-        <v>72</v>
-      </c>
-      <c t="s" r="D100">
-        <v>218</v>
-      </c>
-      <c t="s" r="F100">
-        <v>219</v>
-      </c>
-      <c t="s" s="3" r="G100">
+        <v>36</v>
+      </c>
+      <c t="s" r="C100">
         <v>220</v>
+      </c>
+      <c t="s" r="H100">
+        <v>221</v>
+      </c>
+      <c t="s" r="I100">
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c s="11" r="A101"/>
       <c t="s" r="B101">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="D101">
+        <v>222</v>
+      </c>
+      <c t="s" r="F101">
+        <v>223</v>
+      </c>
+      <c t="s" s="3" r="G101">
+        <v>224</v>
       </c>
     </row>
     <row r="102">
       <c s="11" r="A102"/>
       <c t="s" r="B102">
-        <v>205</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103">
       <c s="11" r="A103"/>
-      <c t="s" s="9" r="B103">
-        <v>221</v>
-      </c>
-      <c s="5" r="C103"/>
-      <c s="5" r="D103"/>
-      <c s="5" r="E103"/>
-      <c s="5" r="F103"/>
-      <c s="5" r="L103"/>
+      <c t="s" r="B103">
+        <v>190</v>
+      </c>
     </row>
     <row r="104">
       <c s="11" r="A104"/>
-      <c t="s" r="B104">
-        <v>105</v>
-      </c>
-      <c t="s" r="D104">
-        <v>222</v>
-      </c>
-      <c t="b" r="E104">
-        <v>1</v>
-      </c>
-      <c s="4" r="L104"/>
+      <c t="s" s="9" r="B104">
+        <v>225</v>
+      </c>
+      <c s="5" r="C104"/>
+      <c s="5" r="D104"/>
+      <c s="5" r="E104"/>
+      <c s="5" r="F104"/>
+      <c s="5" r="L104"/>
     </row>
     <row r="105">
       <c s="11" r="A105"/>
       <c t="s" r="B105">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D105">
+        <v>226</v>
+      </c>
+      <c t="b" r="E105">
+        <v>1</v>
       </c>
       <c s="4" r="L105"/>
     </row>
     <row r="106">
       <c s="11" r="A106"/>
-      <c t="s" s="4" r="B106">
-        <v>36</v>
-      </c>
-      <c s="5" r="C106"/>
-      <c s="4" r="D106"/>
-      <c t="s" r="F106">
-        <v>223</v>
-      </c>
-      <c t="s" r="G106">
-        <v>224</v>
-      </c>
-      <c t="s" r="H106">
-        <v>225</v>
-      </c>
-      <c t="s" r="I106">
-        <v>226</v>
+      <c t="s" r="B106">
+        <v>40</v>
       </c>
       <c s="4" r="L106"/>
     </row>
     <row r="107">
       <c s="11" r="A107"/>
-      <c t="s" r="B107">
-        <v>72</v>
+      <c t="s" s="4" r="B107">
+        <v>36</v>
       </c>
       <c s="5" r="C107"/>
-      <c t="s" r="D107">
+      <c s="4" r="D107"/>
+      <c t="s" r="F107">
         <v>227</v>
       </c>
-      <c t="s" r="F107">
+      <c t="s" r="G107">
         <v>228</v>
       </c>
-      <c t="s" r="G107">
+      <c t="s" r="H107">
         <v>229</v>
       </c>
+      <c t="s" r="I107">
+        <v>230</v>
+      </c>
+      <c s="4" r="L107"/>
     </row>
     <row r="108">
       <c s="11" r="A108"/>
       <c t="s" r="B108">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c s="5" r="C108"/>
+      <c t="s" r="D108">
+        <v>231</v>
+      </c>
+      <c t="s" r="F108">
+        <v>232</v>
+      </c>
+      <c t="s" r="G108">
+        <v>233</v>
       </c>
     </row>
     <row r="109">
       <c s="11" r="A109"/>
-      <c t="s" s="9" r="B109">
-        <v>230</v>
+      <c t="s" r="B109">
+        <v>53</v>
       </c>
     </row>
     <row r="110">
       <c s="11" r="A110"/>
+      <c t="s" s="2" r="B110">
+        <v>234</v>
+      </c>
     </row>
     <row r="111">
       <c s="11" r="A111"/>
     </row>
     <row r="112">
       <c s="11" r="A112"/>
-      <c t="s" s="9" r="B112">
-        <v>231</v>
-      </c>
     </row>
     <row r="113">
       <c s="11" r="A113"/>
-      <c t="s" r="B113">
-        <v>105</v>
-      </c>
-      <c t="s" r="D113">
-        <v>232</v>
-      </c>
-      <c t="b" r="E113">
-        <v>1</v>
+      <c t="s" s="9" r="B113">
+        <v>235</v>
       </c>
     </row>
     <row r="114">
       <c s="11" r="A114"/>
       <c t="s" r="B114">
-        <v>40</v>
-      </c>
-      <c t="s" r="C114">
-        <v>233</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D114">
+        <v>236</v>
+      </c>
+      <c t="b" r="E114">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c s="11" r="A115"/>
-      <c t="s" s="4" r="B115">
-        <v>36</v>
-      </c>
-      <c s="5" r="C115"/>
-      <c s="4" r="D115"/>
-      <c t="s" r="F115">
-        <v>234</v>
-      </c>
-      <c t="s" r="G115">
-        <v>235</v>
-      </c>
-      <c t="s" r="H115">
-        <v>236</v>
-      </c>
-      <c t="s" r="I115">
+      <c t="s" r="B115">
+        <v>40</v>
+      </c>
+      <c t="s" r="C115">
         <v>237</v>
       </c>
-      <c s="4" r="L115"/>
     </row>
     <row r="116">
       <c s="11" r="A116"/>
-      <c t="s" r="B116">
-        <v>72</v>
-      </c>
-      <c t="s" r="D116">
+      <c t="s" s="4" r="B116">
+        <v>36</v>
+      </c>
+      <c s="5" r="C116"/>
+      <c s="4" r="D116"/>
+      <c t="s" r="F116">
         <v>238</v>
       </c>
-      <c t="s" r="F116">
+      <c t="s" r="G116">
         <v>239</v>
       </c>
-      <c t="s" s="5" r="G116">
+      <c t="s" r="H116">
         <v>240</v>
       </c>
+      <c t="s" r="I116">
+        <v>241</v>
+      </c>
+      <c s="4" r="L116"/>
     </row>
     <row r="117">
       <c s="11" r="A117"/>
       <c t="s" r="B117">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="D117">
+        <v>242</v>
+      </c>
+      <c t="s" r="F117">
+        <v>243</v>
+      </c>
+      <c t="s" s="5" r="G117">
+        <v>244</v>
       </c>
     </row>
     <row r="118">
       <c s="11" r="A118"/>
+      <c t="s" r="B118">
+        <v>53</v>
+      </c>
     </row>
     <row r="119">
       <c s="11" r="A119"/>
-      <c t="s" s="8" r="B119">
-        <v>241</v>
-      </c>
     </row>
     <row r="120">
       <c s="11" r="A120"/>
-      <c t="s" r="B120">
-        <v>105</v>
-      </c>
-      <c t="s" r="D120">
-        <v>242</v>
-      </c>
-      <c t="b" r="E120">
-        <v>1</v>
+      <c t="s" s="8" r="B120">
+        <v>245</v>
       </c>
     </row>
     <row r="121">
       <c s="11" r="A121"/>
       <c t="s" r="B121">
-        <v>40</v>
-      </c>
-      <c t="s" r="C121">
-        <v>243</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D121">
+        <v>246</v>
+      </c>
+      <c t="b" r="E121">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c s="11" r="A122"/>
-      <c t="s" s="4" r="B122">
-        <v>36</v>
-      </c>
-      <c s="5" r="C122"/>
-      <c s="4" r="D122"/>
-      <c t="s" r="F122">
-        <v>244</v>
-      </c>
-      <c t="s" s="6" r="G122">
-        <v>245</v>
-      </c>
-      <c t="s" r="H122">
-        <v>246</v>
-      </c>
-      <c t="s" r="I122">
+      <c t="s" r="B122">
+        <v>40</v>
+      </c>
+      <c t="s" r="C122">
         <v>247</v>
       </c>
-      <c s="4" r="L122"/>
     </row>
     <row r="123">
       <c s="11" r="A123"/>
-      <c t="s" r="B123">
-        <v>72</v>
-      </c>
-      <c t="s" r="D123">
+      <c t="s" s="4" r="B123">
+        <v>36</v>
+      </c>
+      <c s="5" r="C123"/>
+      <c s="4" r="D123"/>
+      <c t="s" r="F123">
         <v>248</v>
       </c>
-      <c t="s" r="F123">
+      <c t="s" s="6" r="G123">
         <v>249</v>
       </c>
-      <c t="s" r="G123">
+      <c t="s" r="H123">
         <v>250</v>
       </c>
-      <c t="s" r="H123">
+      <c t="s" r="I123">
         <v>251</v>
       </c>
-      <c t="s" r="I123">
-        <v>252</v>
-      </c>
+      <c s="4" r="L123"/>
     </row>
     <row r="124">
       <c s="11" r="A124"/>
@@ -3772,28 +3808,46 @@
         <v>72</v>
       </c>
       <c t="s" r="D124">
+        <v>252</v>
+      </c>
+      <c t="s" r="F124">
         <v>253</v>
       </c>
-      <c t="s" r="F124">
+      <c t="s" r="G124">
         <v>254</v>
       </c>
-      <c t="s" r="G124">
+      <c t="s" r="H124">
         <v>255</v>
+      </c>
+      <c t="s" r="I124">
+        <v>256</v>
       </c>
     </row>
     <row r="125">
       <c s="11" r="A125"/>
       <c t="s" r="B125">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="D125">
+        <v>257</v>
+      </c>
+      <c t="s" r="F125">
+        <v>258</v>
+      </c>
+      <c t="s" r="G125">
+        <v>259</v>
       </c>
     </row>
     <row r="126">
       <c s="11" r="A126"/>
+      <c t="s" r="B126">
+        <v>53</v>
+      </c>
     </row>
     <row r="127">
       <c s="11" r="A127"/>
       <c t="s" s="3" r="B127">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128">
@@ -3802,7 +3856,7 @@
     <row r="129">
       <c s="11" r="A129"/>
       <c t="s" s="8" r="B129">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130">
@@ -3817,54 +3871,52 @@
         <v>43</v>
       </c>
       <c t="s" s="5" r="D131">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c s="5" r="E131"/>
       <c t="s" s="5" r="F131">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c t="s" s="5" r="G131">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132">
-      <c t="s" s="11" r="A132">
-        <v>261</v>
-      </c>
+      <c s="11" r="A132"/>
       <c t="s" s="4" r="B132">
         <v>28</v>
       </c>
       <c t="s" r="C132">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" s="5" r="D132">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c s="5" r="E132"/>
       <c t="s" s="5" r="F132">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="G132">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133">
       <c s="11" r="A133"/>
       <c t="s" s="4" r="B133">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="C133">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" s="5" r="D133">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c s="5" r="E133"/>
       <c t="s" s="5" r="F133">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" s="5" r="G133">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134">
@@ -3873,16 +3925,16 @@
         <v>43</v>
       </c>
       <c t="s" r="C134">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="D134">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="F134">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="G134">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135">
@@ -3893,168 +3945,195 @@
     </row>
     <row r="136">
       <c s="11" r="A136"/>
-      <c t="s" r="B136">
-        <v>274</v>
-      </c>
-      <c t="s" r="C136">
-        <v>275</v>
+      <c t="s" s="8" r="B136">
+        <v>277</v>
       </c>
     </row>
     <row r="137">
       <c s="11" r="A137"/>
       <c t="s" r="B137">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c t="s" r="C137">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138">
       <c s="11" r="A138"/>
       <c t="s" r="B138">
-        <v>274</v>
-      </c>
-      <c t="s" r="C138">
-        <v>277</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="F138">
+        <v>41</v>
+      </c>
+      <c t="s" r="G138">
+        <v>279</v>
       </c>
     </row>
     <row r="139">
       <c s="11" r="A139"/>
       <c t="s" r="B139">
-        <v>278</v>
+        <v>79</v>
+      </c>
+      <c t="s" r="D139">
+        <v>280</v>
+      </c>
+      <c t="s" r="F139">
+        <v>281</v>
+      </c>
+      <c t="s" r="G139">
+        <v>282</v>
+      </c>
+      <c t="s" r="H139">
+        <v>84</v>
+      </c>
+      <c t="s" r="I139">
+        <v>85</v>
       </c>
     </row>
     <row r="140">
-      <c s="11" r="A140"/>
-      <c t="s" s="8" r="B140">
-        <v>279</v>
+      <c t="s" s="11" r="A140">
+        <v>283</v>
+      </c>
+      <c t="s" r="B140">
+        <v>43</v>
+      </c>
+      <c t="s" r="C140">
+        <v>284</v>
+      </c>
+      <c t="s" r="D140">
+        <v>285</v>
+      </c>
+      <c t="s" r="F140">
+        <v>286</v>
+      </c>
+      <c t="s" r="G140">
+        <v>287</v>
+      </c>
+      <c t="b" r="J140">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c s="11" r="A141"/>
       <c t="s" r="B141">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142">
       <c s="11" r="A142"/>
-      <c t="s" r="B142">
-        <v>36</v>
-      </c>
-      <c t="s" r="F142">
-        <v>41</v>
-      </c>
-      <c t="s" r="G142">
-        <v>280</v>
+      <c t="s" s="3" r="B142">
+        <v>288</v>
       </c>
     </row>
     <row r="143">
       <c s="11" r="A143"/>
       <c t="s" r="B143">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c t="s" r="D143">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c t="s" r="F143">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c t="s" r="G143">
-        <v>283</v>
-      </c>
-      <c t="s" r="H143">
-        <v>84</v>
-      </c>
-      <c t="s" r="I143">
-        <v>85</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144">
       <c t="s" s="11" r="A144">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c t="s" r="B144">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c t="s" r="C144">
-        <v>284</v>
-      </c>
-      <c t="s" r="D144">
-        <v>285</v>
-      </c>
-      <c t="s" r="F144">
-        <v>286</v>
-      </c>
-      <c t="s" r="G144">
-        <v>287</v>
-      </c>
-      <c t="b" r="J144">
-        <v>1</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145">
       <c s="11" r="A145"/>
       <c t="s" r="B145">
-        <v>53</v>
+        <v>294</v>
+      </c>
+      <c t="s" r="C145">
+        <v>278</v>
       </c>
     </row>
     <row r="146">
       <c s="11" r="A146"/>
       <c t="s" r="B146">
-        <v>43</v>
-      </c>
-      <c t="s" r="D146">
-        <v>288</v>
-      </c>
-      <c t="s" r="F146">
-        <v>289</v>
-      </c>
-      <c t="s" r="G146">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147">
       <c s="11" r="A147"/>
+      <c t="s" s="8" r="B147">
+        <v>296</v>
+      </c>
     </row>
     <row r="148">
-      <c t="s" s="11" r="A148">
-        <v>261</v>
-      </c>
+      <c s="11" r="A148"/>
       <c t="s" r="B148">
-        <v>291</v>
-      </c>
-      <c t="s" r="C148">
-        <v>292</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D148">
+        <v>297</v>
+      </c>
+      <c t="b" r="E148">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c s="11" r="A149"/>
       <c t="s" r="B149">
-        <v>293</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150">
       <c s="11" r="A150"/>
-      <c t="s" s="8" r="B150">
-        <v>294</v>
+      <c t="s" r="B150">
+        <v>36</v>
+      </c>
+      <c t="s" r="F150">
+        <v>298</v>
+      </c>
+      <c t="s" r="G150">
+        <v>299</v>
+      </c>
+      <c t="s" r="H150">
+        <v>195</v>
+      </c>
+      <c t="s" r="I150">
+        <v>196</v>
       </c>
     </row>
     <row r="151">
       <c s="11" r="A151"/>
       <c t="s" r="B151">
-        <v>105</v>
-      </c>
-      <c t="s" r="D151">
-        <v>295</v>
-      </c>
-      <c t="b" r="E151">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="H151">
+        <v>300</v>
+      </c>
+      <c t="s" r="I151">
+        <v>301</v>
       </c>
     </row>
     <row r="152">
       <c s="11" r="A152"/>
       <c t="s" r="B152">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="C152">
+        <v>57</v>
+      </c>
+      <c t="s" r="H152">
+        <v>302</v>
+      </c>
+      <c t="s" r="I152">
+        <v>303</v>
       </c>
     </row>
     <row r="153">
@@ -4062,194 +4141,197 @@
       <c t="s" r="B153">
         <v>36</v>
       </c>
-      <c t="s" r="F153">
-        <v>296</v>
-      </c>
-      <c t="s" r="G153">
-        <v>297</v>
+      <c t="s" r="C153">
+        <v>304</v>
       </c>
       <c t="s" r="H153">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c t="s" r="I153">
-        <v>191</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154">
       <c s="11" r="A154"/>
       <c t="s" r="B154">
-        <v>36</v>
-      </c>
-      <c t="s" r="H154">
-        <v>298</v>
-      </c>
-      <c t="s" r="I154">
-        <v>299</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="D154">
+        <v>126</v>
+      </c>
+      <c t="s" r="F154">
+        <v>307</v>
+      </c>
+      <c t="s" r="G154">
+        <v>308</v>
       </c>
     </row>
     <row r="155">
-      <c s="11" r="A155"/>
+      <c t="s" s="11" r="A155">
+        <v>309</v>
+      </c>
       <c t="s" r="B155">
-        <v>36</v>
-      </c>
-      <c t="s" r="C155">
-        <v>57</v>
-      </c>
-      <c t="s" r="H155">
-        <v>300</v>
-      </c>
-      <c t="s" r="I155">
-        <v>301</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="D155">
+        <v>310</v>
+      </c>
+      <c t="s" r="F155">
+        <v>311</v>
+      </c>
+      <c t="s" r="G155">
+        <v>312</v>
       </c>
     </row>
     <row r="156">
       <c s="11" r="A156"/>
       <c t="s" r="B156">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c t="s" r="C156">
-        <v>302</v>
-      </c>
-      <c t="s" r="H156">
-        <v>303</v>
-      </c>
-      <c t="s" r="I156">
-        <v>304</v>
+        <v>313</v>
+      </c>
+      <c t="s" r="F156">
+        <v>314</v>
+      </c>
+      <c t="s" r="G156">
+        <v>315</v>
       </c>
     </row>
     <row r="157">
-      <c s="11" r="A157"/>
+      <c t="s" s="11" r="A157">
+        <v>316</v>
+      </c>
       <c t="s" r="B157">
         <v>72</v>
       </c>
       <c t="s" r="F157">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c t="s" r="G157">
-        <v>306</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158">
-      <c t="s" s="11" r="A158">
-        <v>307</v>
-      </c>
+      <c s="11" r="A158"/>
       <c t="s" r="B158">
-        <v>72</v>
-      </c>
-      <c t="s" r="F158">
-        <v>308</v>
-      </c>
-      <c t="s" r="G158">
-        <v>309</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159">
       <c s="11" r="A159"/>
       <c t="s" r="B159">
-        <v>72</v>
-      </c>
-      <c t="s" r="C159">
-        <v>310</v>
-      </c>
-      <c t="s" r="F159">
-        <v>311</v>
-      </c>
-      <c t="s" r="G159">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160">
-      <c t="s" s="11" r="A160">
-        <v>313</v>
-      </c>
-      <c t="s" r="B160">
-        <v>72</v>
-      </c>
-      <c t="s" r="F160">
-        <v>116</v>
-      </c>
-      <c t="s" r="G160">
-        <v>117</v>
+      <c s="11" r="A160"/>
+      <c t="s" s="8" r="B160">
+        <v>317</v>
       </c>
     </row>
     <row r="161">
       <c s="11" r="A161"/>
       <c t="s" r="B161">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D161">
+        <v>318</v>
+      </c>
+      <c t="b" r="E161">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c s="11" r="A162"/>
       <c t="s" r="B162">
-        <v>278</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163">
       <c s="11" r="A163"/>
-      <c t="s" s="8" r="B163">
-        <v>314</v>
+      <c t="s" r="B163">
+        <v>36</v>
+      </c>
+      <c t="s" r="F163">
+        <v>319</v>
+      </c>
+      <c t="s" r="G163">
+        <v>320</v>
+      </c>
+      <c t="s" r="H163">
+        <v>195</v>
+      </c>
+      <c t="s" r="I163">
+        <v>196</v>
       </c>
     </row>
     <row r="164">
       <c s="11" r="A164"/>
       <c t="s" r="B164">
-        <v>105</v>
-      </c>
-      <c t="s" r="D164">
-        <v>315</v>
-      </c>
-      <c t="b" r="E164">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="H164">
+        <v>321</v>
+      </c>
+      <c t="s" r="I164">
+        <v>301</v>
       </c>
     </row>
     <row r="165">
-      <c s="11" r="A165"/>
+      <c t="s" s="11" r="A165">
+        <v>309</v>
+      </c>
       <c t="s" r="B165">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="F165">
+        <v>322</v>
+      </c>
+      <c t="s" r="G165">
+        <v>323</v>
       </c>
     </row>
     <row r="166">
       <c s="11" r="A166"/>
       <c t="s" r="B166">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="C166">
+        <v>313</v>
       </c>
       <c t="s" r="F166">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c t="s" r="G166">
-        <v>317</v>
-      </c>
-      <c t="s" r="H166">
-        <v>190</v>
-      </c>
-      <c t="s" r="I166">
-        <v>191</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167">
       <c s="11" r="A167"/>
       <c t="s" r="B167">
-        <v>36</v>
-      </c>
-      <c t="s" r="H167">
-        <v>318</v>
-      </c>
-      <c t="s" r="I167">
-        <v>299</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="F167">
+        <v>326</v>
+      </c>
+      <c t="s" r="G167">
+        <v>327</v>
       </c>
     </row>
     <row r="168">
-      <c t="s" s="11" r="A168">
-        <v>307</v>
-      </c>
+      <c s="11" r="A168"/>
       <c t="s" r="B168">
         <v>72</v>
       </c>
+      <c t="s" r="C168">
+        <v>328</v>
+      </c>
       <c t="s" r="F168">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c t="s" r="G168">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169">
@@ -4258,791 +4340,805 @@
         <v>72</v>
       </c>
       <c t="s" r="C169">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c t="s" r="F169">
-        <v>321</v>
-      </c>
-      <c t="s" r="G169">
-        <v>322</v>
+        <v>141</v>
+      </c>
+      <c t="s" s="5" r="G169">
+        <v>332</v>
+      </c>
+      <c t="s" r="H169">
+        <v>333</v>
+      </c>
+      <c t="s" r="I169">
+        <v>334</v>
       </c>
     </row>
     <row r="170">
       <c s="11" r="A170"/>
       <c t="s" r="B170">
-        <v>72</v>
-      </c>
-      <c t="s" r="F170">
-        <v>323</v>
-      </c>
-      <c t="s" r="G170">
-        <v>324</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171">
       <c s="11" r="A171"/>
-      <c t="s" r="B171">
-        <v>72</v>
-      </c>
-      <c t="s" r="C171">
-        <v>325</v>
-      </c>
-      <c t="s" r="F171">
-        <v>326</v>
-      </c>
-      <c t="s" r="G171">
-        <v>327</v>
+      <c t="s" s="3" r="B171">
+        <v>335</v>
       </c>
     </row>
     <row r="172">
       <c s="11" r="A172"/>
-      <c t="s" r="B172">
-        <v>72</v>
-      </c>
-      <c t="s" r="C172">
-        <v>328</v>
-      </c>
-      <c t="s" r="F172">
-        <v>139</v>
-      </c>
-      <c t="s" s="5" r="G172">
-        <v>329</v>
-      </c>
-      <c t="s" r="H172">
-        <v>330</v>
-      </c>
-      <c t="s" r="I172">
-        <v>331</v>
+      <c t="s" s="8" r="B172">
+        <v>336</v>
       </c>
     </row>
     <row r="173">
       <c s="11" r="A173"/>
       <c t="s" r="B173">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174">
       <c s="11" r="A174"/>
-      <c t="s" s="3" r="B174">
-        <v>332</v>
+      <c t="s" r="B174">
+        <v>36</v>
+      </c>
+      <c t="s" r="F174">
+        <v>337</v>
+      </c>
+      <c t="s" r="G174">
+        <v>338</v>
       </c>
     </row>
     <row r="175">
       <c s="11" r="A175"/>
-      <c t="s" s="8" r="B175">
-        <v>333</v>
+      <c t="s" r="B175">
+        <v>96</v>
+      </c>
+      <c t="s" r="D175">
+        <v>339</v>
+      </c>
+      <c t="s" r="F175">
+        <v>340</v>
+      </c>
+      <c t="s" r="G175">
+        <v>341</v>
       </c>
     </row>
     <row r="176">
       <c s="11" r="A176"/>
       <c t="s" r="B176">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c t="s" r="D176">
+        <v>342</v>
+      </c>
+      <c t="s" r="F176">
+        <v>343</v>
+      </c>
+      <c t="s" r="G176">
+        <v>344</v>
       </c>
     </row>
     <row r="177">
-      <c s="11" r="A177"/>
+      <c t="s" s="11" r="A177">
+        <v>345</v>
+      </c>
       <c t="s" r="B177">
-        <v>36</v>
+        <v>346</v>
+      </c>
+      <c t="s" r="D177">
+        <v>347</v>
       </c>
       <c t="s" r="F177">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c t="s" r="G177">
-        <v>335</v>
+        <v>349</v>
+      </c>
+      <c t="s" r="H177">
+        <v>350</v>
       </c>
     </row>
     <row r="178">
       <c s="11" r="A178"/>
       <c t="s" r="B178">
-        <v>95</v>
-      </c>
-      <c t="s" r="D178">
-        <v>336</v>
-      </c>
-      <c t="s" r="F178">
-        <v>337</v>
-      </c>
-      <c t="s" r="G178">
-        <v>338</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179">
       <c s="11" r="A179"/>
       <c t="s" r="B179">
-        <v>95</v>
-      </c>
-      <c t="s" r="D179">
-        <v>339</v>
-      </c>
-      <c t="s" r="F179">
-        <v>340</v>
-      </c>
-      <c t="s" r="G179">
-        <v>341</v>
+        <v>351</v>
+      </c>
+      <c t="s" r="C179">
+        <v>352</v>
       </c>
     </row>
     <row r="180">
-      <c t="s" s="11" r="A180">
-        <v>342</v>
-      </c>
+      <c s="11" r="A180"/>
       <c t="s" r="B180">
-        <v>343</v>
-      </c>
-      <c t="s" r="D180">
-        <v>344</v>
-      </c>
-      <c t="s" r="F180">
-        <v>345</v>
-      </c>
-      <c t="s" r="G180">
-        <v>346</v>
-      </c>
-      <c t="s" r="H180">
-        <v>347</v>
+        <v>351</v>
+      </c>
+      <c t="s" r="C180">
+        <v>353</v>
       </c>
     </row>
     <row r="181">
       <c s="11" r="A181"/>
       <c t="s" r="B181">
-        <v>53</v>
+        <v>354</v>
+      </c>
+      <c t="s" r="C181">
+        <v>355</v>
       </c>
     </row>
     <row r="182">
       <c s="11" r="A182"/>
       <c t="s" r="B182">
-        <v>348</v>
-      </c>
-      <c t="s" r="C182">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183">
       <c s="11" r="A183"/>
-      <c t="s" r="B183">
-        <v>348</v>
-      </c>
-      <c t="s" r="C183">
-        <v>350</v>
+      <c t="s" s="8" r="B183">
+        <v>357</v>
       </c>
     </row>
     <row r="184">
       <c s="11" r="A184"/>
       <c t="s" r="B184">
-        <v>351</v>
-      </c>
-      <c t="s" r="C184">
-        <v>352</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D184">
+        <v>358</v>
+      </c>
+      <c t="b" r="E184">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c s="11" r="A185"/>
       <c t="s" r="B185">
-        <v>353</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
       <c s="11" r="A186"/>
-      <c t="s" s="8" r="B186">
-        <v>354</v>
+      <c t="s" r="B186">
+        <v>36</v>
+      </c>
+      <c t="s" r="F186">
+        <v>359</v>
+      </c>
+      <c t="s" r="G186">
+        <v>360</v>
+      </c>
+      <c t="s" r="H186">
+        <v>195</v>
+      </c>
+      <c t="s" r="I186">
+        <v>196</v>
       </c>
     </row>
     <row r="187">
       <c s="11" r="A187"/>
       <c t="s" r="B187">
-        <v>105</v>
-      </c>
-      <c t="s" r="D187">
-        <v>355</v>
-      </c>
-      <c t="b" r="E187">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="C187">
+        <v>352</v>
+      </c>
+      <c t="s" r="H187">
+        <v>361</v>
+      </c>
+      <c t="s" r="I187">
+        <v>344</v>
       </c>
     </row>
     <row r="188">
       <c s="11" r="A188"/>
       <c t="s" r="B188">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="C188">
+        <v>353</v>
+      </c>
+      <c t="s" r="H188">
+        <v>362</v>
+      </c>
+      <c t="s" r="I188">
+        <v>341</v>
       </c>
     </row>
     <row r="189">
-      <c s="11" r="A189"/>
+      <c t="s" s="11" r="A189">
+        <v>363</v>
+      </c>
       <c t="s" r="B189">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c t="s" r="F189">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c t="s" r="G189">
-        <v>357</v>
-      </c>
-      <c t="s" r="H189">
-        <v>190</v>
-      </c>
-      <c t="s" r="I189">
-        <v>191</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190">
-      <c s="11" r="A190"/>
+      <c t="s" s="11" r="A190">
+        <v>366</v>
+      </c>
       <c t="s" r="B190">
-        <v>36</v>
-      </c>
-      <c t="s" r="C190">
-        <v>349</v>
-      </c>
-      <c t="s" r="H190">
-        <v>358</v>
-      </c>
-      <c t="s" r="I190">
-        <v>341</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="F190">
+        <v>367</v>
+      </c>
+      <c t="s" r="G190">
+        <v>368</v>
       </c>
     </row>
     <row r="191">
       <c s="11" r="A191"/>
       <c t="s" r="B191">
-        <v>36</v>
-      </c>
-      <c t="s" r="C191">
-        <v>350</v>
-      </c>
-      <c t="s" r="H191">
-        <v>359</v>
-      </c>
-      <c t="s" r="I191">
-        <v>338</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="F191">
+        <v>369</v>
+      </c>
+      <c t="s" r="G191">
+        <v>370</v>
       </c>
     </row>
     <row r="192">
-      <c t="s" s="11" r="A192">
-        <v>360</v>
-      </c>
+      <c s="11" r="A192"/>
       <c t="s" r="B192">
         <v>72</v>
       </c>
       <c t="s" r="F192">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c t="s" r="G192">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193">
-      <c t="s" s="11" r="A193">
-        <v>363</v>
-      </c>
+      <c s="11" r="A193"/>
       <c t="s" r="B193">
-        <v>72</v>
-      </c>
-      <c t="s" r="F193">
-        <v>364</v>
-      </c>
-      <c t="s" r="G193">
-        <v>365</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194">
       <c s="11" r="A194"/>
       <c t="s" r="B194">
-        <v>72</v>
-      </c>
-      <c t="s" r="F194">
-        <v>366</v>
-      </c>
-      <c t="s" r="G194">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195">
       <c s="11" r="A195"/>
-      <c t="s" r="B195">
-        <v>72</v>
-      </c>
-      <c t="s" r="F195">
-        <v>116</v>
-      </c>
-      <c t="s" r="G195">
-        <v>368</v>
+      <c t="s" s="8" r="B195">
+        <v>373</v>
       </c>
     </row>
     <row r="196">
       <c s="11" r="A196"/>
       <c t="s" r="B196">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D196">
+        <v>374</v>
+      </c>
+      <c t="b" r="E196">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c s="11" r="A197"/>
       <c t="s" r="B197">
-        <v>369</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198">
       <c s="11" r="A198"/>
-      <c t="s" s="8" r="B198">
-        <v>370</v>
+      <c t="s" r="B198">
+        <v>36</v>
+      </c>
+      <c t="s" r="F198">
+        <v>375</v>
+      </c>
+      <c t="s" r="G198">
+        <v>376</v>
+      </c>
+      <c t="s" r="H198">
+        <v>195</v>
+      </c>
+      <c t="s" r="I198">
+        <v>196</v>
       </c>
     </row>
     <row r="199">
       <c s="11" r="A199"/>
       <c t="s" r="B199">
-        <v>105</v>
-      </c>
-      <c t="s" r="D199">
-        <v>371</v>
-      </c>
-      <c t="b" r="E199">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c t="s" r="H199">
+        <v>377</v>
+      </c>
+      <c s="3" r="I199"/>
     </row>
     <row r="200">
-      <c s="11" r="A200"/>
+      <c t="s" s="11" r="A200">
+        <v>378</v>
+      </c>
       <c t="s" r="B200">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="H200">
+        <v>379</v>
+      </c>
+      <c t="s" r="I200">
+        <v>380</v>
       </c>
     </row>
     <row r="201">
       <c s="11" r="A201"/>
       <c t="s" r="B201">
-        <v>36</v>
-      </c>
-      <c t="s" r="F201">
-        <v>372</v>
-      </c>
-      <c t="s" r="G201">
-        <v>373</v>
+        <v>72</v>
       </c>
       <c t="s" r="H201">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c t="s" r="I201">
-        <v>191</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202">
       <c s="11" r="A202"/>
       <c t="s" r="B202">
-        <v>36</v>
-      </c>
-      <c t="s" r="H202">
-        <v>374</v>
-      </c>
-      <c s="3" r="I202"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="203">
-      <c t="s" s="11" r="A203">
-        <v>375</v>
-      </c>
+      <c s="11" r="A203"/>
       <c t="s" r="B203">
-        <v>72</v>
-      </c>
-      <c t="s" r="H203">
-        <v>376</v>
-      </c>
-      <c t="s" r="I203">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204">
       <c s="11" r="A204"/>
-      <c t="s" r="B204">
-        <v>72</v>
-      </c>
-      <c t="s" r="H204">
-        <v>378</v>
-      </c>
-      <c t="s" r="I204">
-        <v>379</v>
+      <c t="s" s="8" r="B204">
+        <v>383</v>
       </c>
     </row>
     <row r="205">
       <c s="11" r="A205"/>
       <c t="s" r="B205">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D205">
+        <v>384</v>
+      </c>
+      <c t="b" r="E205">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c s="11" r="A206"/>
       <c t="s" r="B206">
-        <v>369</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
       <c s="11" r="A207"/>
-      <c t="s" s="8" r="B207">
-        <v>380</v>
+      <c t="s" r="B207">
+        <v>36</v>
+      </c>
+      <c t="s" r="F207">
+        <v>385</v>
+      </c>
+      <c t="s" r="G207">
+        <v>386</v>
+      </c>
+      <c t="s" r="H207">
+        <v>387</v>
+      </c>
+      <c t="s" r="I207">
+        <v>196</v>
       </c>
     </row>
     <row r="208">
       <c s="11" r="A208"/>
       <c t="s" r="B208">
-        <v>105</v>
-      </c>
-      <c t="s" r="D208">
-        <v>381</v>
-      </c>
-      <c t="b" r="E208">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c t="s" r="H208">
+        <v>388</v>
+      </c>
+      <c t="s" r="I208">
+        <v>389</v>
       </c>
     </row>
     <row r="209">
-      <c s="11" r="A209"/>
+      <c t="s" s="11" r="A209">
+        <v>390</v>
+      </c>
       <c t="s" r="B209">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="C209">
+        <v>391</v>
+      </c>
+      <c t="s" r="H209">
+        <v>379</v>
+      </c>
+      <c t="s" r="I209">
+        <v>380</v>
       </c>
     </row>
     <row r="210">
       <c s="11" r="A210"/>
       <c t="s" r="B210">
-        <v>36</v>
-      </c>
-      <c t="s" r="F210">
-        <v>382</v>
-      </c>
-      <c t="s" r="G210">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c t="s" r="H210">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c t="s" r="I210">
-        <v>191</v>
+        <v>393</v>
       </c>
     </row>
     <row r="211">
       <c s="11" r="A211"/>
       <c t="s" r="B211">
-        <v>36</v>
-      </c>
-      <c t="s" r="H211">
-        <v>385</v>
-      </c>
-      <c t="s" r="I211">
-        <v>386</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212">
-      <c t="s" s="11" r="A212">
-        <v>387</v>
-      </c>
-      <c t="s" r="B212">
-        <v>72</v>
-      </c>
-      <c t="s" r="C212">
-        <v>388</v>
-      </c>
-      <c t="s" r="H212">
-        <v>376</v>
-      </c>
-      <c t="s" r="I212">
-        <v>377</v>
-      </c>
+      <c s="11" r="A212"/>
     </row>
     <row r="213">
       <c s="11" r="A213"/>
-      <c t="s" r="B213">
-        <v>72</v>
-      </c>
-      <c t="s" r="H213">
-        <v>389</v>
-      </c>
-      <c t="s" r="I213">
-        <v>390</v>
+      <c t="s" s="8" r="B213">
+        <v>394</v>
       </c>
     </row>
     <row r="214">
       <c s="11" r="A214"/>
       <c t="s" r="B214">
-        <v>53</v>
+        <v>395</v>
+      </c>
+      <c t="s" r="D214">
+        <v>396</v>
+      </c>
+      <c t="s" r="F214">
+        <v>397</v>
+      </c>
+      <c t="s" r="G214">
+        <v>338</v>
+      </c>
+      <c t="b" r="J214">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c s="11" r="A215"/>
+      <c t="s" r="B215">
+        <v>398</v>
+      </c>
+      <c t="s" r="C215">
+        <v>399</v>
+      </c>
     </row>
     <row r="216">
       <c s="11" r="A216"/>
-      <c t="s" s="8" r="B216">
-        <v>391</v>
+      <c t="s" r="B216">
+        <v>400</v>
+      </c>
+      <c t="s" r="C216">
+        <v>401</v>
       </c>
     </row>
     <row r="217">
       <c s="11" r="A217"/>
       <c t="s" r="B217">
-        <v>392</v>
-      </c>
-      <c t="s" r="D217">
-        <v>393</v>
-      </c>
-      <c t="s" r="F217">
-        <v>394</v>
-      </c>
-      <c t="s" r="G217">
-        <v>335</v>
-      </c>
-      <c t="b" r="J217">
-        <v>1</v>
+        <v>402</v>
+      </c>
+      <c t="s" r="C217">
+        <v>403</v>
       </c>
     </row>
     <row r="218">
       <c s="11" r="A218"/>
-      <c t="s" r="B218">
-        <v>395</v>
-      </c>
-      <c t="s" r="C218">
-        <v>396</v>
-      </c>
     </row>
     <row r="219">
       <c s="11" r="A219"/>
-      <c t="s" r="B219">
-        <v>397</v>
-      </c>
-      <c t="s" r="C219">
-        <v>398</v>
+      <c t="s" s="8" r="B219">
+        <v>404</v>
       </c>
     </row>
     <row r="220">
       <c s="11" r="A220"/>
       <c t="s" r="B220">
-        <v>399</v>
-      </c>
-      <c t="s" r="C220">
-        <v>400</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D220">
+        <v>405</v>
+      </c>
+      <c t="b" r="E220">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c s="11" r="A221"/>
+      <c t="s" r="B221">
+        <v>40</v>
+      </c>
     </row>
     <row r="222">
       <c s="11" r="A222"/>
-      <c t="s" s="8" r="B222">
-        <v>401</v>
+      <c t="s" r="B222">
+        <v>36</v>
+      </c>
+      <c t="s" r="F222">
+        <v>406</v>
+      </c>
+      <c t="s" r="G222">
+        <v>407</v>
+      </c>
+      <c t="s" r="H222">
+        <v>408</v>
+      </c>
+      <c t="s" s="6" r="I222">
+        <v>409</v>
       </c>
     </row>
     <row r="223">
       <c s="11" r="A223"/>
       <c t="s" r="B223">
-        <v>105</v>
-      </c>
-      <c t="s" r="D223">
-        <v>402</v>
-      </c>
-      <c t="b" r="E223">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="F223">
+        <v>243</v>
+      </c>
+      <c t="s" r="G223">
+        <v>410</v>
       </c>
     </row>
     <row r="224">
       <c s="11" r="A224"/>
       <c t="s" r="B224">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225">
       <c s="11" r="A225"/>
       <c t="s" r="B225">
-        <v>36</v>
-      </c>
-      <c t="s" r="F225">
-        <v>403</v>
-      </c>
-      <c t="s" r="G225">
-        <v>404</v>
-      </c>
-      <c t="s" r="H225">
-        <v>405</v>
-      </c>
-      <c t="s" s="6" r="I225">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>411</v>
+      </c>
+    </row>
+    <row ht="4.5" r="226" customHeight="1">
       <c s="11" r="A226"/>
-      <c t="s" r="B226">
-        <v>72</v>
-      </c>
-      <c t="s" r="F226">
-        <v>239</v>
-      </c>
-      <c t="s" r="G226">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="227">
+      <c t="s" s="8" r="B226">
+        <v>412</v>
+      </c>
+    </row>
+    <row ht="4.5" r="227" customHeight="1">
       <c s="11" r="A227"/>
       <c t="s" r="B227">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>107</v>
+      </c>
+      <c t="s" r="D227">
+        <v>413</v>
+      </c>
+      <c t="b" r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="15.0" r="228" customHeight="1">
       <c s="11" r="A228"/>
       <c t="s" r="B228">
-        <v>408</v>
+        <v>40</v>
       </c>
     </row>
     <row ht="4.5" r="229" customHeight="1">
       <c s="11" r="A229"/>
-      <c t="s" s="8" r="B229">
-        <v>409</v>
-      </c>
-    </row>
-    <row ht="4.5" r="230" customHeight="1">
+      <c t="s" s="6" r="B229">
+        <v>36</v>
+      </c>
+      <c t="s" r="F229">
+        <v>414</v>
+      </c>
+      <c t="s" r="G229">
+        <v>415</v>
+      </c>
+      <c t="s" r="H229">
+        <v>416</v>
+      </c>
+      <c t="s" s="6" r="I229">
+        <v>417</v>
+      </c>
+    </row>
+    <row ht="15.0" r="230" customHeight="1">
       <c s="11" r="A230"/>
       <c t="s" r="B230">
-        <v>105</v>
-      </c>
-      <c t="s" r="D230">
-        <v>410</v>
-      </c>
-      <c t="b" r="E230">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="F230">
+        <v>418</v>
+      </c>
+      <c t="s" r="G230">
+        <v>419</v>
       </c>
     </row>
     <row ht="15.0" r="231" customHeight="1">
-      <c s="11" r="A231"/>
+      <c t="s" s="11" r="A231">
+        <v>378</v>
+      </c>
       <c t="s" r="B231">
-        <v>40</v>
-      </c>
-    </row>
-    <row ht="4.5" r="232" customHeight="1">
+        <v>72</v>
+      </c>
+      <c t="s" r="F231">
+        <v>379</v>
+      </c>
+      <c t="s" r="G231">
+        <v>420</v>
+      </c>
+    </row>
+    <row ht="15.0" r="232" customHeight="1">
       <c s="11" r="A232"/>
-      <c t="s" s="6" r="B232">
-        <v>36</v>
-      </c>
-      <c t="s" r="F232">
-        <v>411</v>
-      </c>
-      <c t="s" r="G232">
-        <v>412</v>
-      </c>
-      <c t="s" r="H232">
-        <v>413</v>
-      </c>
-      <c t="s" s="6" r="I232">
-        <v>414</v>
-      </c>
-    </row>
-    <row ht="15.0" r="233" customHeight="1">
+      <c t="s" r="B232">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233">
       <c s="11" r="A233"/>
       <c t="s" r="B233">
-        <v>72</v>
-      </c>
-      <c t="s" r="F233">
-        <v>415</v>
-      </c>
-      <c t="s" r="G233">
-        <v>416</v>
-      </c>
-    </row>
-    <row ht="15.0" r="234" customHeight="1">
-      <c t="s" s="11" r="A234">
-        <v>375</v>
-      </c>
-      <c t="s" r="B234">
-        <v>72</v>
-      </c>
-      <c t="s" r="F234">
-        <v>376</v>
-      </c>
-      <c t="s" r="G234">
-        <v>417</v>
-      </c>
-    </row>
-    <row ht="15.0" r="235" customHeight="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="234">
+      <c s="11" r="A234"/>
+      <c t="s" s="8" r="B234">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="235">
       <c s="11" r="A235"/>
       <c t="s" r="B235">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c t="s" r="D235">
+        <v>422</v>
+      </c>
+      <c t="b" r="E235">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c s="11" r="A236"/>
       <c t="s" r="B236">
-        <v>408</v>
+        <v>40</v>
       </c>
     </row>
     <row r="237">
       <c s="11" r="A237"/>
-      <c t="s" s="8" r="B237">
-        <v>418</v>
+      <c t="s" s="6" r="B237">
+        <v>36</v>
+      </c>
+      <c t="s" r="F237">
+        <v>423</v>
+      </c>
+      <c t="s" r="G237">
+        <v>424</v>
+      </c>
+      <c t="s" r="H237">
+        <v>425</v>
+      </c>
+      <c t="s" s="6" r="I237">
+        <v>417</v>
       </c>
     </row>
     <row r="238">
       <c s="11" r="A238"/>
       <c t="s" r="B238">
-        <v>105</v>
-      </c>
-      <c t="s" r="D238">
-        <v>419</v>
-      </c>
-      <c t="b" r="E238">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c t="s" r="C238">
+        <v>426</v>
+      </c>
+      <c t="s" r="F238">
+        <v>427</v>
+      </c>
+      <c t="s" r="G238">
+        <v>428</v>
       </c>
     </row>
     <row r="239">
       <c s="11" r="A239"/>
       <c t="s" r="B239">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240">
       <c s="11" r="A240"/>
-      <c t="s" s="6" r="B240">
-        <v>36</v>
-      </c>
-      <c t="s" r="F240">
-        <v>420</v>
-      </c>
-      <c t="s" r="G240">
-        <v>421</v>
-      </c>
-      <c t="s" r="H240">
-        <v>422</v>
-      </c>
-      <c t="s" s="6" r="I240">
-        <v>414</v>
+      <c t="s" s="3" r="B240">
+        <v>429</v>
       </c>
     </row>
     <row r="241">
       <c s="11" r="A241"/>
-      <c t="s" r="B241">
-        <v>72</v>
-      </c>
-      <c t="s" r="C241">
-        <v>423</v>
-      </c>
-      <c t="s" r="F241">
-        <v>424</v>
-      </c>
-      <c t="s" r="G241">
-        <v>425</v>
-      </c>
     </row>
     <row r="242">
       <c s="11" r="A242"/>
-      <c t="s" r="B242">
-        <v>53</v>
-      </c>
     </row>
     <row r="243">
       <c s="11" r="A243"/>
-      <c t="s" s="3" r="B243">
-        <v>426</v>
-      </c>
+      <c t="s" s="8" r="B243">
+        <v>430</v>
+      </c>
+      <c s="5" r="C243"/>
+      <c s="5" r="D243"/>
+      <c s="5" r="E243"/>
+      <c s="5" r="F243"/>
+      <c s="5" r="G243"/>
+      <c s="5" r="H243"/>
+      <c s="5" r="L243"/>
+      <c s="5" r="M243"/>
+      <c s="6" r="N243"/>
     </row>
     <row r="244">
       <c s="11" r="A244"/>
+      <c t="s" s="5" r="B244">
+        <v>431</v>
+      </c>
+      <c s="5" r="C244"/>
+      <c t="s" s="5" r="D244">
+        <v>432</v>
+      </c>
+      <c s="5" r="E244"/>
+      <c t="s" s="5" r="F244">
+        <v>433</v>
+      </c>
+      <c t="s" s="5" r="G244">
+        <v>434</v>
+      </c>
+      <c s="5" r="H244"/>
+      <c t="s" s="6" r="K244">
+        <v>435</v>
+      </c>
+      <c s="5" r="L244"/>
+      <c s="5" r="M244"/>
+      <c s="6" r="N244"/>
     </row>
     <row r="245">
       <c s="11" r="A245"/>
+      <c t="s" s="5" r="B245">
+        <v>40</v>
+      </c>
+      <c s="5" r="C245"/>
+      <c s="5" r="D245"/>
+      <c s="5" r="E245"/>
+      <c s="5" r="F245"/>
+      <c s="5" r="G245"/>
+      <c s="5" r="H245"/>
+      <c s="5" r="L245"/>
+      <c s="5" r="M245"/>
+      <c s="6" r="N245"/>
     </row>
     <row r="246">
       <c s="11" r="A246"/>
-      <c t="s" s="8" r="B246">
-        <v>427</v>
+      <c t="s" s="5" r="B246">
+        <v>36</v>
       </c>
       <c s="5" r="C246"/>
       <c s="5" r="D246"/>
       <c s="5" r="E246"/>
-      <c s="5" r="F246"/>
-      <c s="5" r="G246"/>
+      <c t="s" s="5" r="F246">
+        <v>436</v>
+      </c>
+      <c s="2" r="G246"/>
       <c s="5" r="H246"/>
       <c s="5" r="L246"/>
       <c s="5" r="M246"/>
@@ -5051,23 +5147,17 @@
     <row r="247">
       <c s="11" r="A247"/>
       <c t="s" s="5" r="B247">
-        <v>428</v>
-      </c>
-      <c s="5" r="C247"/>
-      <c t="s" s="5" r="D247">
-        <v>429</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c t="s" s="5" r="C247">
+        <v>437</v>
+      </c>
+      <c s="5" r="D247"/>
       <c s="5" r="E247"/>
       <c t="s" s="5" r="F247">
-        <v>430</v>
-      </c>
-      <c t="s" s="5" r="G247">
-        <v>431</v>
-      </c>
-      <c s="5" r="H247"/>
-      <c t="s" s="6" r="K247">
-        <v>432</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c s="2" r="G247"/>
       <c s="5" r="L247"/>
       <c s="5" r="M247"/>
       <c s="6" r="N247"/>
@@ -5075,14 +5165,19 @@
     <row r="248">
       <c s="11" r="A248"/>
       <c t="s" s="5" r="B248">
-        <v>40</v>
-      </c>
-      <c s="5" r="C248"/>
+        <v>36</v>
+      </c>
+      <c t="s" r="C248">
+        <v>439</v>
+      </c>
       <c s="5" r="D248"/>
       <c s="5" r="E248"/>
       <c s="5" r="F248"/>
       <c s="5" r="G248"/>
-      <c s="5" r="H248"/>
+      <c t="s" s="5" r="H248">
+        <v>440</v>
+      </c>
+      <c s="3" r="I248"/>
       <c s="5" r="L248"/>
       <c s="5" r="M248"/>
       <c s="6" r="N248"/>
@@ -5092,14 +5187,17 @@
       <c t="s" s="5" r="B249">
         <v>36</v>
       </c>
-      <c s="5" r="C249"/>
+      <c t="s" s="5" r="C249">
+        <v>441</v>
+      </c>
       <c s="5" r="D249"/>
       <c s="5" r="E249"/>
-      <c t="s" s="5" r="F249">
-        <v>433</v>
-      </c>
-      <c s="2" r="G249"/>
-      <c s="5" r="H249"/>
+      <c s="5" r="F249"/>
+      <c s="5" r="G249"/>
+      <c t="s" s="5" r="H249">
+        <v>442</v>
+      </c>
+      <c s="3" r="I249"/>
       <c s="5" r="L249"/>
       <c s="5" r="M249"/>
       <c s="6" r="N249"/>
@@ -5109,13 +5207,17 @@
       <c t="s" s="5" r="B250">
         <v>36</v>
       </c>
-      <c s="5" r="C250"/>
+      <c t="s" s="5" r="C250">
+        <v>443</v>
+      </c>
       <c s="5" r="D250"/>
       <c s="5" r="E250"/>
-      <c t="s" s="5" r="F250">
-        <v>434</v>
-      </c>
-      <c s="2" r="G250"/>
+      <c s="5" r="F250"/>
+      <c s="5" r="G250"/>
+      <c t="s" s="5" r="H250">
+        <v>444</v>
+      </c>
+      <c s="3" r="I250"/>
       <c s="5" r="L250"/>
       <c s="5" r="M250"/>
       <c s="6" r="N250"/>
@@ -5125,15 +5227,15 @@
       <c t="s" s="5" r="B251">
         <v>36</v>
       </c>
-      <c t="s" r="C251">
-        <v>435</v>
+      <c t="s" s="5" r="C251">
+        <v>445</v>
       </c>
       <c s="5" r="D251"/>
       <c s="5" r="E251"/>
       <c s="5" r="F251"/>
       <c s="5" r="G251"/>
       <c t="s" s="5" r="H251">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c s="3" r="I251"/>
       <c s="5" r="L251"/>
@@ -5146,14 +5248,14 @@
         <v>36</v>
       </c>
       <c t="s" s="5" r="C252">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c s="5" r="D252"/>
       <c s="5" r="E252"/>
       <c s="5" r="F252"/>
       <c s="5" r="G252"/>
       <c t="s" s="5" r="H252">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c s="3" r="I252"/>
       <c s="5" r="L252"/>
@@ -5163,18 +5265,16 @@
     <row r="253">
       <c s="11" r="A253"/>
       <c t="s" s="5" r="B253">
-        <v>36</v>
-      </c>
-      <c t="s" s="5" r="C253">
-        <v>439</v>
-      </c>
-      <c s="5" r="D253"/>
+        <v>72</v>
+      </c>
+      <c s="5" r="C253"/>
+      <c t="s" s="5" r="D253">
+        <v>449</v>
+      </c>
       <c s="5" r="E253"/>
       <c s="5" r="F253"/>
-      <c s="5" r="G253"/>
-      <c t="s" s="5" r="H253">
-        <v>440</v>
-      </c>
+      <c s="4" r="G253"/>
+      <c s="5" r="H253"/>
       <c s="3" r="I253"/>
       <c s="5" r="L253"/>
       <c s="5" r="M253"/>
@@ -5183,17 +5283,19 @@
     <row r="254">
       <c s="11" r="A254"/>
       <c t="s" s="5" r="B254">
-        <v>36</v>
-      </c>
-      <c t="s" s="5" r="C254">
-        <v>441</v>
-      </c>
-      <c s="5" r="D254"/>
+        <v>72</v>
+      </c>
+      <c s="5" r="C254"/>
+      <c t="s" s="5" r="D254">
+        <v>450</v>
+      </c>
       <c s="5" r="E254"/>
-      <c s="5" r="F254"/>
-      <c s="5" r="G254"/>
+      <c t="s" s="5" r="F254">
+        <v>451</v>
+      </c>
+      <c s="2" r="G254"/>
       <c t="s" s="5" r="H254">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c s="3" r="I254"/>
       <c s="5" r="L254"/>
@@ -5203,39 +5305,36 @@
     <row r="255">
       <c s="11" r="A255"/>
       <c t="s" s="5" r="B255">
-        <v>36</v>
-      </c>
-      <c t="s" s="5" r="C255">
-        <v>443</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c s="5" r="C255"/>
       <c s="5" r="D255"/>
       <c s="5" r="E255"/>
       <c s="5" r="F255"/>
       <c s="5" r="G255"/>
-      <c t="s" s="5" r="H255">
-        <v>444</v>
-      </c>
-      <c s="3" r="I255"/>
+      <c s="5" r="H255"/>
       <c s="5" r="L255"/>
       <c s="5" r="M255"/>
       <c s="6" r="N255"/>
     </row>
     <row r="256">
-      <c s="11" r="A256"/>
+      <c t="s" s="11" r="A256">
+        <v>453</v>
+      </c>
       <c t="s" s="5" r="B256">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c s="5" r="C256"/>
-      <c s="5" r="D256"/>
+      <c t="s" s="5" r="D256">
+        <v>454</v>
+      </c>
       <c s="5" r="E256"/>
       <c t="s" s="5" r="F256">
-        <v>445</v>
-      </c>
-      <c s="2" r="G256"/>
-      <c t="s" s="5" r="H256">
-        <v>446</v>
-      </c>
-      <c s="3" r="I256"/>
+        <v>455</v>
+      </c>
+      <c t="s" s="5" r="G256">
+        <v>456</v>
+      </c>
       <c s="5" r="L256"/>
       <c s="5" r="M256"/>
       <c s="6" r="N256"/>
@@ -5243,61 +5342,24 @@
     <row r="257">
       <c s="11" r="A257"/>
       <c t="s" s="5" r="B257">
-        <v>53</v>
-      </c>
-      <c s="5" r="C257"/>
-      <c s="5" r="D257"/>
+        <v>72</v>
+      </c>
+      <c t="s" s="5" r="C257">
+        <v>457</v>
+      </c>
+      <c t="s" s="5" r="D257">
+        <v>458</v>
+      </c>
       <c s="5" r="E257"/>
-      <c s="5" r="F257"/>
-      <c s="5" r="G257"/>
-      <c s="5" r="H257"/>
+      <c t="s" s="5" r="F257">
+        <v>459</v>
+      </c>
+      <c t="s" s="5" r="G257">
+        <v>244</v>
+      </c>
       <c s="5" r="L257"/>
       <c s="5" r="M257"/>
       <c s="6" r="N257"/>
-    </row>
-    <row r="258">
-      <c t="s" s="11" r="A258">
-        <v>447</v>
-      </c>
-      <c t="s" s="5" r="B258">
-        <v>43</v>
-      </c>
-      <c s="5" r="C258"/>
-      <c t="s" s="5" r="D258">
-        <v>448</v>
-      </c>
-      <c s="5" r="E258"/>
-      <c t="s" s="5" r="F258">
-        <v>449</v>
-      </c>
-      <c t="s" s="5" r="G258">
-        <v>450</v>
-      </c>
-      <c s="5" r="L258"/>
-      <c s="5" r="M258"/>
-      <c s="6" r="N258"/>
-    </row>
-    <row r="259">
-      <c s="11" r="A259"/>
-      <c t="s" s="5" r="B259">
-        <v>72</v>
-      </c>
-      <c t="s" s="5" r="C259">
-        <v>451</v>
-      </c>
-      <c t="s" s="5" r="D259">
-        <v>452</v>
-      </c>
-      <c s="5" r="E259"/>
-      <c t="s" s="5" r="F259">
-        <v>453</v>
-      </c>
-      <c t="s" s="5" r="G259">
-        <v>240</v>
-      </c>
-      <c s="5" r="L259"/>
-      <c s="5" r="M259"/>
-      <c s="6" r="N259"/>
     </row>
   </sheetData>
 </worksheet>
@@ -5324,42 +5386,50 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c t="s" r="B2">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3">
       <c t="s" r="A3">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c t="s" r="B3">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c t="s" r="B4">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c t="s" r="A5">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c t="s" r="B5">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
       <c t="s" r="A6">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="B6">
-        <v>462</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" r="A7">
+        <v>469</v>
+      </c>
+      <c t="s" r="B7">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5445,7 @@
   <sheetData>
     <row r="1">
       <c t="s" s="4" r="A1">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c t="s" s="4" r="B1">
         <v>3</v>
@@ -5387,35 +5457,35 @@
         <v>6</v>
       </c>
       <c t="s" r="E1">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="4" r="A2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c t="s" s="4" r="B2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c t="s" s="4" r="C2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c t="s" r="D2">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="4" r="A3">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c t="s" s="4" r="B3">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c t="s" s="4" r="C3">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c t="s" r="D3">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4">
@@ -5425,30 +5495,30 @@
     </row>
     <row r="5">
       <c t="s" s="4" r="A5">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c t="s" s="4" r="B5">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c t="s" s="4" r="C5">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c t="s" r="D5">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="4" r="A6">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c t="s" s="4" r="B6">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c t="s" s="4" r="C6">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c t="s" r="D6">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7">
@@ -5458,30 +5528,30 @@
     </row>
     <row r="8">
       <c t="s" s="4" r="A8">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c t="s" s="4" r="B8">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c t="s" s="4" r="C8">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c t="s" r="D8">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9">
       <c t="s" s="4" r="A9">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c t="s" s="4" r="B9">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c t="s" s="4" r="C9">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c t="s" r="D9">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10">
@@ -5491,30 +5561,30 @@
     </row>
     <row r="11">
       <c t="s" s="4" r="A11">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c t="s" s="4" r="B11">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c t="s" s="4" r="C11">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c t="s" r="D11">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c t="s" s="4" r="A12">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c t="s" s="4" r="B12">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c t="s" s="4" r="C12">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c t="s" r="D12">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13">
@@ -5528,86 +5598,86 @@
     </row>
     <row r="15">
       <c t="s" s="4" r="A15">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" s="4" r="B15">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c t="s" r="C15">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c t="s" r="D15">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="4" r="A16">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" s="4" r="B16">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c t="s" r="C16">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c t="s" r="D16">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="4" r="A17">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="B17">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c t="s" r="C17">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c t="s" r="D17">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20">
       <c t="s" r="A20">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c t="s" r="B20">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c t="s" r="C20">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c t="s" r="D20">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21">
       <c t="s" r="A21">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c t="s" r="B21">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c t="s" r="C21">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c t="s" r="D21">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22">
       <c t="s" r="A22">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c t="s" r="B22">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c t="s" r="C22">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c t="s" r="D22">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24">
@@ -5617,58 +5687,58 @@
     </row>
     <row r="25">
       <c t="s" s="4" r="A25">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c t="s" s="4" r="B25">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c t="s" s="4" r="C25">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c t="s" r="D25">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26">
       <c t="s" s="4" r="A26">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c t="s" r="B26">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c t="s" r="C26">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c t="s" r="D26">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27">
       <c t="s" s="4" r="A27">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c t="s" r="B27">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c t="s" r="C27">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c t="s" r="D27">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30">
       <c t="s" r="A30">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B30">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c t="s" s="5" r="C30">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c t="s" r="D30">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5676,16 +5746,16 @@
     </row>
     <row r="31">
       <c t="s" r="A31">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B31">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c t="s" s="5" r="C31">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c t="s" r="D31">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5693,16 +5763,16 @@
     </row>
     <row r="32">
       <c t="s" r="A32">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B32">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c t="s" s="5" r="C32">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c t="s" r="D32">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -5710,16 +5780,16 @@
     </row>
     <row r="33">
       <c t="s" r="A33">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B33">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c t="s" s="5" r="C33">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c t="s" r="D33">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -5727,13 +5797,13 @@
     </row>
     <row r="34">
       <c t="s" r="A34">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B34">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c t="s" s="5" r="C34">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c s="3" r="D34"/>
       <c r="E34">
@@ -5742,13 +5812,13 @@
     </row>
     <row r="35">
       <c t="s" r="A35">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B35">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c t="s" s="5" r="C35">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c s="3" r="D35"/>
       <c r="E35">
@@ -5757,13 +5827,13 @@
     </row>
     <row r="36">
       <c t="s" r="A36">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B36">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c t="s" s="5" r="C36">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c s="3" r="D36"/>
       <c r="E36">
@@ -5772,13 +5842,13 @@
     </row>
     <row r="37">
       <c t="s" r="A37">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B37">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c t="s" s="5" r="C37">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c s="3" r="D37"/>
       <c r="E37">
@@ -5787,13 +5857,13 @@
     </row>
     <row r="38">
       <c t="s" r="A38">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B38">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c t="s" r="C38">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c s="3" r="D38"/>
       <c r="E38">
@@ -5802,13 +5872,13 @@
     </row>
     <row r="39">
       <c t="s" r="A39">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B39">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c t="s" r="C39">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c s="3" r="D39"/>
       <c r="E39">
@@ -5817,13 +5887,13 @@
     </row>
     <row r="40">
       <c t="s" r="A40">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B40">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c t="s" r="C40">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c s="3" r="D40"/>
       <c r="E40">
@@ -5832,13 +5902,13 @@
     </row>
     <row r="41">
       <c t="s" r="A41">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B41">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c t="s" r="C41">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c s="3" r="D41"/>
       <c r="E41">
@@ -5847,13 +5917,13 @@
     </row>
     <row r="42">
       <c t="s" r="A42">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c t="s" r="B42">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c t="s" r="C42">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c s="3" r="D42"/>
       <c r="E42">
@@ -5862,212 +5932,212 @@
     </row>
     <row r="45">
       <c t="s" r="A45">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B45">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c t="s" r="C45">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c t="s" r="D45">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46">
       <c t="s" r="A46">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B46">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c t="s" r="C46">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c t="s" r="D46">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47">
       <c t="s" r="A47">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B47">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c t="s" r="C47">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c t="s" r="D47">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48">
       <c t="s" r="A48">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" s="4" r="B48">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c t="s" s="4" r="C48">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c t="s" r="D48">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49">
       <c t="s" r="A49">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B49">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c t="s" s="4" r="C49">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c t="s" r="D49">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50">
       <c t="s" r="A50">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B50">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c t="s" r="C50">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c t="s" r="D50">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51">
       <c t="s" r="A51">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B51">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c t="s" r="C51">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c t="s" r="D51">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52">
       <c t="s" r="A52">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B52">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c t="s" r="C52">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c t="s" r="D52">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53">
       <c t="s" r="A53">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B53">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c t="s" r="C53">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c t="s" r="D53">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54">
       <c t="s" r="A54">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B54">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c t="s" r="C54">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c t="s" r="D54">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55">
       <c t="s" r="A55">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c t="s" r="B55">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c t="s" r="C55">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c t="s" r="D55">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58">
       <c t="s" r="A58">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c t="s" r="B58">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c t="s" r="C58">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c t="s" r="D58">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59">
       <c t="s" r="A59">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c t="s" r="B59">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c t="s" r="C59">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c t="s" r="D59">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60">
       <c t="s" r="A60">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c t="s" r="B60">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c t="s" r="C60">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c t="s" r="D60">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61">
       <c t="s" r="A61">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c t="s" r="B61">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c t="s" r="C61">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c t="s" r="D61">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64">
@@ -6075,13 +6145,13 @@
         <v>33</v>
       </c>
       <c t="s" r="B64">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c t="s" r="C64">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c t="s" r="D64">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65">
@@ -6089,222 +6159,222 @@
         <v>33</v>
       </c>
       <c t="s" r="B65">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c t="s" r="C65">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c t="s" r="D65">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68">
       <c t="s" r="A68">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c t="s" r="B68">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c t="s" r="C68">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c t="s" r="D68">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69">
       <c t="s" r="A69">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c t="s" r="B69">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c t="s" r="C69">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c t="s" r="D69">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70">
       <c t="s" r="A70">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c t="s" r="B70">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c t="s" r="C70">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c t="s" r="D70">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71">
       <c t="s" r="A71">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c t="s" r="B71">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c t="s" r="C71">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c t="s" r="D71">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73">
       <c t="s" r="A73">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c t="s" r="B73">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c t="s" r="C73">
-        <v>501</v>
+        <v>623</v>
       </c>
       <c t="s" r="D73">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74">
       <c t="s" r="A74">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c t="s" r="B74">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c t="s" r="C74">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c t="s" r="D74">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75">
       <c t="s" r="A75">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c t="s" r="B75">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c t="s" r="C75">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c t="s" r="D75">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77">
       <c t="s" r="A77">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c t="s" r="B77">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c t="s" r="C77">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c t="s" r="D77">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78">
       <c t="s" r="A78">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c t="s" r="B78">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c t="s" r="C78">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c t="s" r="D78">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80">
       <c t="s" r="A80">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c t="s" r="B80">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c t="s" r="C80">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c t="s" r="D80">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81">
       <c t="s" r="A81">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c t="s" r="B81">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c t="s" r="C81">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c t="s" r="D81">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83">
       <c t="s" r="A83">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="B83">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c t="s" r="C83">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84">
       <c t="s" r="A84">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="B84">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c t="s" r="C84">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="85">
       <c t="s" r="A85">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="B85">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c t="s" r="C85">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86">
       <c t="s" r="A86">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="B86">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c t="s" r="C86">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87">
       <c t="s" r="A87">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c t="s" r="B87">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c t="s" r="C87">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6320,29 +6390,29 @@
   <sheetData>
     <row r="1">
       <c t="s" s="4" r="A1">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c t="s" s="4" r="B1">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c t="s" s="4" r="C1">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c s="4" r="D1"/>
     </row>
     <row r="2">
       <c t="s" s="4" r="A2">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c t="s" s="4" r="B2">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c s="4" r="C2"/>
       <c s="4" r="D2"/>
     </row>
     <row r="3">
       <c t="s" s="4" r="A3">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6351,13 +6421,13 @@
     </row>
     <row r="4">
       <c t="s" r="A4">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c t="s" r="B4">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c t="s" r="C4">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6">
